--- a/me/2.LWC-Fundamentals.xlsx
+++ b/me/2.LWC-Fundamentals.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\LightningWebComponent\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CA3288-CF62-4EA0-8869-7DC25E267536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF91A92-08B4-4B7B-9D0B-4594E4E61736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hello World Component" sheetId="1" r:id="rId1"/>
     <sheet name="Data Binding" sheetId="2" r:id="rId2"/>
+    <sheet name="Applying CSS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="77">
   <si>
     <t>構成</t>
   </si>
@@ -275,6 +276,76 @@
   </si>
   <si>
     <t>Màn hình ban đầu</t>
+  </si>
+  <si>
+    <t>helloWorld.css</t>
+  </si>
+  <si>
+    <t>        &lt;div style="color: white; background:black;"&gt;Inline CSS Style&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;div&gt;Styling with element tag name&lt;/div&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>        &lt;div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> class="greeting-class"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;Hello {dynamicGreeting}&lt;/div&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\helloWorld\helloWorld.css</t>
+  </si>
+  <si>
+    <t>.greeting-class {</t>
+  </si>
+  <si>
+    <t>    color: green;</t>
+  </si>
+  <si>
+    <t>div {</t>
+  </si>
+  <si>
+    <t>    border: 3px solid blue;</t>
+  </si>
+  <si>
+    <t>:host {</t>
+  </si>
+  <si>
+    <t>    border: 4px solid red;</t>
+  </si>
+  <si>
+    <t>new. Css is not created by default, so the css file is not a mandatory file so we need to create css by ourself</t>
+  </si>
+  <si>
+    <t>style: We can also do inline styling here similar to any html markup</t>
+  </si>
+  <si>
+    <t>host: Can style the complete Lightning Web Component itself(template element)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep in mind  do not use id selector inside Lightning Web Component to assign css properties because Lightning Web Component gets rendered on browser the id of our element will be changed </t>
+  </si>
+  <si>
+    <t>dynamically so all css style that we applied using id selector will not work because the id itself will change</t>
   </si>
 </sst>
 </file>
@@ -403,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -416,10 +487,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1114,6 +1184,114 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4268EAE5-B0B2-C840-981D-9A733A42F5D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="819150" y="5495925"/>
+          <a:ext cx="6534150" cy="2181225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>107186</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F557AFF-1335-BC5F-94E0-5F0530EBBA1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="9220199"/>
+          <a:ext cx="11087100" cy="5364987"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1405,93 +1583,51 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
-      <c r="C5" s="12" t="s">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12" t="s">
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12" t="s">
+      <c r="E7" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12" t="s">
+      <c r="F8" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12" t="s">
+      <c r="G9" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12" t="s">
+      <c r="F10" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
       <c r="J11" s="6"/>
       <c r="K11" t="s">
         <v>7</v>
@@ -1502,54 +1638,33 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="12" t="s">
+      <c r="G12" s="12"/>
+      <c r="H12" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="12"/>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="12" t="s">
+      <c r="G13" s="12"/>
+      <c r="H13" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="12"/>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="12" t="s">
+      <c r="G14" s="12"/>
+      <c r="H14" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="12"/>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12" t="s">
+      <c r="G15" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2568,8 +2683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B3AC35-7153-402C-90FA-BC819FC21131}">
   <dimension ref="A4:T101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W61" sqref="W61"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2594,106 +2709,59 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
-      <c r="C6" s="12" t="s">
+      <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12" t="s">
+      <c r="D7" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12" t="s">
+      <c r="E8" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12" t="s">
+      <c r="F9" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12" t="s">
+      <c r="G10" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12" t="s">
+      <c r="F11" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="14" t="s">
+      <c r="G12" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13" t="s">
+      <c r="G13" s="12"/>
+      <c r="H13" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="12"/>
       <c r="J13" s="6"/>
       <c r="K13" t="s">
         <v>7</v>
@@ -2704,15 +2772,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13" t="s">
+      <c r="G14" s="12"/>
+      <c r="H14" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="12"/>
       <c r="J14" s="6"/>
       <c r="K14" t="s">
         <v>7</v>
@@ -2723,28 +2786,17 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="12" t="s">
+      <c r="G15" s="12"/>
+      <c r="H15" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="12"/>
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12" t="s">
+      <c r="G16" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2781,42 +2833,18 @@
       <c r="B22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
       <c r="K24" s="6"/>
       <c r="L24" t="s">
         <v>7</v>
@@ -2829,14 +2857,6 @@
       <c r="B25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2878,12 +2898,6 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
       <c r="I31" s="6"/>
       <c r="K31" t="s">
         <v>54</v>
@@ -2893,12 +2907,6 @@
       <c r="B32" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
       <c r="I32" s="6"/>
       <c r="K32" t="s">
         <v>55</v>
@@ -2908,12 +2916,6 @@
       <c r="B33" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
       <c r="I33" s="6"/>
       <c r="K33" t="s">
         <v>56</v>
@@ -2921,48 +2923,24 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B34" s="10"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
       <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
       <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -3002,1305 +2980,245 @@
       <c r="T41" s="4"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="12" t="s">
+      <c r="A42" s="5"/>
+      <c r="B42" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
-      <c r="S42" s="12"/>
       <c r="T42" s="6"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
       <c r="T43" s="6"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
-      <c r="S44" s="12"/>
       <c r="T44" s="6"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="12"/>
-      <c r="S45" s="12"/>
       <c r="T45" s="6"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="12"/>
-      <c r="S46" s="12"/>
       <c r="T46" s="6"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="12"/>
-      <c r="S47" s="12"/>
       <c r="T47" s="6"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="12"/>
-      <c r="S48" s="12"/>
       <c r="T48" s="6"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="12"/>
-      <c r="S49" s="12"/>
       <c r="T49" s="6"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="12"/>
       <c r="T50" s="6"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
       <c r="T51" s="6"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="12"/>
-      <c r="S52" s="12"/>
       <c r="T52" s="6"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="12"/>
-      <c r="S53" s="12"/>
       <c r="T53" s="6"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="12"/>
-      <c r="S54" s="12"/>
       <c r="T54" s="6"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="12"/>
-      <c r="S55" s="12"/>
       <c r="T55" s="6"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="12"/>
-      <c r="R56" s="12"/>
-      <c r="S56" s="12"/>
       <c r="T56" s="6"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="12"/>
-      <c r="R57" s="12"/>
-      <c r="S57" s="12"/>
       <c r="T57" s="6"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="12"/>
-      <c r="R58" s="12"/>
-      <c r="S58" s="12"/>
       <c r="T58" s="6"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="12"/>
-      <c r="P59" s="12"/>
-      <c r="Q59" s="12"/>
-      <c r="R59" s="12"/>
-      <c r="S59" s="12"/>
       <c r="T59" s="6"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="12"/>
-      <c r="R60" s="12"/>
-      <c r="S60" s="12"/>
       <c r="T60" s="6"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="12"/>
-      <c r="P61" s="12"/>
-      <c r="Q61" s="12"/>
-      <c r="R61" s="12"/>
-      <c r="S61" s="12"/>
       <c r="T61" s="6"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="12"/>
-      <c r="S62" s="12"/>
       <c r="T62" s="6"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="12"/>
-      <c r="P63" s="12"/>
-      <c r="Q63" s="12"/>
-      <c r="R63" s="12"/>
-      <c r="S63" s="12"/>
       <c r="T63" s="6"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="12"/>
-      <c r="R64" s="12"/>
-      <c r="S64" s="12"/>
       <c r="T64" s="6"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="12"/>
-      <c r="P65" s="12"/>
-      <c r="Q65" s="12"/>
-      <c r="R65" s="12"/>
-      <c r="S65" s="12"/>
       <c r="T65" s="6"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="12"/>
-      <c r="O66" s="12"/>
-      <c r="P66" s="12"/>
-      <c r="Q66" s="12"/>
-      <c r="R66" s="12"/>
-      <c r="S66" s="12"/>
       <c r="T66" s="6"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="12"/>
-      <c r="P67" s="12"/>
-      <c r="Q67" s="12"/>
-      <c r="R67" s="12"/>
-      <c r="S67" s="12"/>
       <c r="T67" s="6"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="12"/>
-      <c r="Q68" s="12"/>
-      <c r="R68" s="12"/>
-      <c r="S68" s="12"/>
       <c r="T68" s="6"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
-      <c r="P69" s="12"/>
-      <c r="Q69" s="12"/>
-      <c r="R69" s="12"/>
-      <c r="S69" s="12"/>
       <c r="T69" s="6"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12"/>
-      <c r="Q70" s="12"/>
-      <c r="R70" s="12"/>
-      <c r="S70" s="12"/>
       <c r="T70" s="6"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="12"/>
-      <c r="P71" s="12"/>
-      <c r="Q71" s="12"/>
-      <c r="R71" s="12"/>
-      <c r="S71" s="12"/>
       <c r="T71" s="6"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
-      <c r="B72" s="12" t="s">
+      <c r="B72" t="s">
         <v>59</v>
       </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="12"/>
-      <c r="P72" s="12"/>
-      <c r="Q72" s="12"/>
-      <c r="R72" s="12"/>
-      <c r="S72" s="12"/>
       <c r="T72" s="6"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="12"/>
-      <c r="P73" s="12"/>
-      <c r="Q73" s="12"/>
-      <c r="R73" s="12"/>
-      <c r="S73" s="12"/>
       <c r="T73" s="6"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="12"/>
-      <c r="P74" s="12"/>
-      <c r="Q74" s="12"/>
-      <c r="R74" s="12"/>
-      <c r="S74" s="12"/>
       <c r="T74" s="6"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="12"/>
-      <c r="P75" s="12"/>
-      <c r="Q75" s="12"/>
-      <c r="R75" s="12"/>
-      <c r="S75" s="12"/>
       <c r="T75" s="6"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="12"/>
-      <c r="P76" s="12"/>
-      <c r="Q76" s="12"/>
-      <c r="R76" s="12"/>
-      <c r="S76" s="12"/>
       <c r="T76" s="6"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
-      <c r="N77" s="12"/>
-      <c r="O77" s="12"/>
-      <c r="P77" s="12"/>
-      <c r="Q77" s="12"/>
-      <c r="R77" s="12"/>
-      <c r="S77" s="12"/>
       <c r="T77" s="6"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="12"/>
-      <c r="P78" s="12"/>
-      <c r="Q78" s="12"/>
-      <c r="R78" s="12"/>
-      <c r="S78" s="12"/>
       <c r="T78" s="6"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
-      <c r="N79" s="12"/>
-      <c r="O79" s="12"/>
-      <c r="P79" s="12"/>
-      <c r="Q79" s="12"/>
-      <c r="R79" s="12"/>
-      <c r="S79" s="12"/>
       <c r="T79" s="6"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="12"/>
-      <c r="M80" s="12"/>
-      <c r="N80" s="12"/>
-      <c r="O80" s="12"/>
-      <c r="P80" s="12"/>
-      <c r="Q80" s="12"/>
-      <c r="R80" s="12"/>
-      <c r="S80" s="12"/>
       <c r="T80" s="6"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="12"/>
-      <c r="M81" s="12"/>
-      <c r="N81" s="12"/>
-      <c r="O81" s="12"/>
-      <c r="P81" s="12"/>
-      <c r="Q81" s="12"/>
-      <c r="R81" s="12"/>
-      <c r="S81" s="12"/>
       <c r="T81" s="6"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="12"/>
-      <c r="M82" s="12"/>
-      <c r="N82" s="12"/>
-      <c r="O82" s="12"/>
-      <c r="P82" s="12"/>
-      <c r="Q82" s="12"/>
-      <c r="R82" s="12"/>
-      <c r="S82" s="12"/>
       <c r="T82" s="6"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="12"/>
-      <c r="M83" s="12"/>
-      <c r="N83" s="12"/>
-      <c r="O83" s="12"/>
-      <c r="P83" s="12"/>
-      <c r="Q83" s="12"/>
-      <c r="R83" s="12"/>
-      <c r="S83" s="12"/>
       <c r="T83" s="6"/>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="12"/>
-      <c r="M84" s="12"/>
-      <c r="N84" s="12"/>
-      <c r="O84" s="12"/>
-      <c r="P84" s="12"/>
-      <c r="Q84" s="12"/>
-      <c r="R84" s="12"/>
-      <c r="S84" s="12"/>
       <c r="T84" s="6"/>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="12"/>
-      <c r="L85" s="12"/>
-      <c r="M85" s="12"/>
-      <c r="N85" s="12"/>
-      <c r="O85" s="12"/>
-      <c r="P85" s="12"/>
-      <c r="Q85" s="12"/>
-      <c r="R85" s="12"/>
-      <c r="S85" s="12"/>
       <c r="T85" s="6"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
-      <c r="L86" s="12"/>
-      <c r="M86" s="12"/>
-      <c r="N86" s="12"/>
-      <c r="O86" s="12"/>
-      <c r="P86" s="12"/>
-      <c r="Q86" s="12"/>
-      <c r="R86" s="12"/>
-      <c r="S86" s="12"/>
       <c r="T86" s="6"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="12"/>
-      <c r="M87" s="12"/>
-      <c r="N87" s="12"/>
-      <c r="O87" s="12"/>
-      <c r="P87" s="12"/>
-      <c r="Q87" s="12"/>
-      <c r="R87" s="12"/>
-      <c r="S87" s="12"/>
       <c r="T87" s="6"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="12"/>
-      <c r="M88" s="12"/>
-      <c r="N88" s="12"/>
-      <c r="O88" s="12"/>
-      <c r="P88" s="12"/>
-      <c r="Q88" s="12"/>
-      <c r="R88" s="12"/>
-      <c r="S88" s="12"/>
       <c r="T88" s="6"/>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
-      <c r="M89" s="12"/>
-      <c r="N89" s="12"/>
-      <c r="O89" s="12"/>
-      <c r="P89" s="12"/>
-      <c r="Q89" s="12"/>
-      <c r="R89" s="12"/>
-      <c r="S89" s="12"/>
       <c r="T89" s="6"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="12"/>
-      <c r="L90" s="12"/>
-      <c r="M90" s="12"/>
-      <c r="N90" s="12"/>
-      <c r="O90" s="12"/>
-      <c r="P90" s="12"/>
-      <c r="Q90" s="12"/>
-      <c r="R90" s="12"/>
-      <c r="S90" s="12"/>
       <c r="T90" s="6"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="12"/>
-      <c r="M91" s="12"/>
-      <c r="N91" s="12"/>
-      <c r="O91" s="12"/>
-      <c r="P91" s="12"/>
-      <c r="Q91" s="12"/>
-      <c r="R91" s="12"/>
-      <c r="S91" s="12"/>
       <c r="T91" s="6"/>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="12"/>
-      <c r="M92" s="12"/>
-      <c r="N92" s="12"/>
-      <c r="O92" s="12"/>
-      <c r="P92" s="12"/>
-      <c r="Q92" s="12"/>
-      <c r="R92" s="12"/>
-      <c r="S92" s="12"/>
       <c r="T92" s="6"/>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="12"/>
-      <c r="L93" s="12"/>
-      <c r="M93" s="12"/>
-      <c r="N93" s="12"/>
-      <c r="O93" s="12"/>
-      <c r="P93" s="12"/>
-      <c r="Q93" s="12"/>
-      <c r="R93" s="12"/>
-      <c r="S93" s="12"/>
       <c r="T93" s="6"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="12"/>
-      <c r="L94" s="12"/>
-      <c r="M94" s="12"/>
-      <c r="N94" s="12"/>
-      <c r="O94" s="12"/>
-      <c r="P94" s="12"/>
-      <c r="Q94" s="12"/>
-      <c r="R94" s="12"/>
-      <c r="S94" s="12"/>
       <c r="T94" s="6"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="12"/>
-      <c r="L95" s="12"/>
-      <c r="M95" s="12"/>
-      <c r="N95" s="12"/>
-      <c r="O95" s="12"/>
-      <c r="P95" s="12"/>
-      <c r="Q95" s="12"/>
-      <c r="R95" s="12"/>
-      <c r="S95" s="12"/>
       <c r="T95" s="6"/>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="12"/>
-      <c r="I96" s="12"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="12"/>
-      <c r="L96" s="12"/>
-      <c r="M96" s="12"/>
-      <c r="N96" s="12"/>
-      <c r="O96" s="12"/>
-      <c r="P96" s="12"/>
-      <c r="Q96" s="12"/>
-      <c r="R96" s="12"/>
-      <c r="S96" s="12"/>
       <c r="T96" s="6"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="12"/>
-      <c r="L97" s="12"/>
-      <c r="M97" s="12"/>
-      <c r="N97" s="12"/>
-      <c r="O97" s="12"/>
-      <c r="P97" s="12"/>
-      <c r="Q97" s="12"/>
-      <c r="R97" s="12"/>
-      <c r="S97" s="12"/>
       <c r="T97" s="6"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="12"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="12"/>
-      <c r="L98" s="12"/>
-      <c r="M98" s="12"/>
-      <c r="N98" s="12"/>
-      <c r="O98" s="12"/>
-      <c r="P98" s="12"/>
-      <c r="Q98" s="12"/>
-      <c r="R98" s="12"/>
-      <c r="S98" s="12"/>
       <c r="T98" s="6"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="12"/>
-      <c r="L99" s="12"/>
-      <c r="M99" s="12"/>
-      <c r="N99" s="12"/>
-      <c r="O99" s="12"/>
-      <c r="P99" s="12"/>
-      <c r="Q99" s="12"/>
-      <c r="R99" s="12"/>
-      <c r="S99" s="12"/>
       <c r="T99" s="6"/>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
-      <c r="I100" s="12"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="12"/>
-      <c r="L100" s="12"/>
-      <c r="M100" s="12"/>
-      <c r="N100" s="12"/>
-      <c r="O100" s="12"/>
-      <c r="P100" s="12"/>
-      <c r="Q100" s="12"/>
-      <c r="R100" s="12"/>
-      <c r="S100" s="12"/>
       <c r="T100" s="6"/>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
@@ -4329,4 +3247,1050 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1380C9EE-1D10-4AFA-A1E6-EA9B9D5B2B69}">
+  <dimension ref="A2:T77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="H14" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="G17" s="12"/>
+      <c r="H17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="6"/>
+      <c r="L26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="6"/>
+      <c r="F43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="9"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="4"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="6"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="6"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="6"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="6"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="6"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="6"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="6"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="14"/>
+      <c r="T56" s="6"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="6"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
+      <c r="R58" s="14"/>
+      <c r="S58" s="14"/>
+      <c r="T58" s="6"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="14"/>
+      <c r="R59" s="14"/>
+      <c r="S59" s="14"/>
+      <c r="T59" s="6"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
+      <c r="R60" s="14"/>
+      <c r="S60" s="14"/>
+      <c r="T60" s="6"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="14"/>
+      <c r="R61" s="14"/>
+      <c r="S61" s="14"/>
+      <c r="T61" s="6"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="14"/>
+      <c r="S62" s="14"/>
+      <c r="T62" s="6"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="6"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="14"/>
+      <c r="S64" s="14"/>
+      <c r="T64" s="6"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="14"/>
+      <c r="P65" s="14"/>
+      <c r="Q65" s="14"/>
+      <c r="R65" s="14"/>
+      <c r="S65" s="14"/>
+      <c r="T65" s="6"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="14"/>
+      <c r="P66" s="14"/>
+      <c r="Q66" s="14"/>
+      <c r="R66" s="14"/>
+      <c r="S66" s="14"/>
+      <c r="T66" s="6"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="14"/>
+      <c r="R67" s="14"/>
+      <c r="S67" s="14"/>
+      <c r="T67" s="6"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="14"/>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="14"/>
+      <c r="R68" s="14"/>
+      <c r="S68" s="14"/>
+      <c r="T68" s="6"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="14"/>
+      <c r="P69" s="14"/>
+      <c r="Q69" s="14"/>
+      <c r="R69" s="14"/>
+      <c r="S69" s="14"/>
+      <c r="T69" s="6"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="14"/>
+      <c r="P70" s="14"/>
+      <c r="Q70" s="14"/>
+      <c r="R70" s="14"/>
+      <c r="S70" s="14"/>
+      <c r="T70" s="6"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="14"/>
+      <c r="O71" s="14"/>
+      <c r="P71" s="14"/>
+      <c r="Q71" s="14"/>
+      <c r="R71" s="14"/>
+      <c r="S71" s="14"/>
+      <c r="T71" s="6"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="14"/>
+      <c r="P72" s="14"/>
+      <c r="Q72" s="14"/>
+      <c r="R72" s="14"/>
+      <c r="S72" s="14"/>
+      <c r="T72" s="6"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="14"/>
+      <c r="P73" s="14"/>
+      <c r="Q73" s="14"/>
+      <c r="R73" s="14"/>
+      <c r="S73" s="14"/>
+      <c r="T73" s="6"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="14"/>
+      <c r="P74" s="14"/>
+      <c r="Q74" s="14"/>
+      <c r="R74" s="14"/>
+      <c r="S74" s="14"/>
+      <c r="T74" s="6"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="14"/>
+      <c r="P75" s="14"/>
+      <c r="Q75" s="14"/>
+      <c r="R75" s="14"/>
+      <c r="S75" s="14"/>
+      <c r="T75" s="6"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="14"/>
+      <c r="Q76" s="14"/>
+      <c r="R76" s="14"/>
+      <c r="S76" s="14"/>
+      <c r="T76" s="6"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="7"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8"/>
+      <c r="S77" s="8"/>
+      <c r="T77" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/2.LWC-Fundamentals.xlsx
+++ b/me/2.LWC-Fundamentals.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\LightningWebComponent\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF91A92-08B4-4B7B-9D0B-4594E4E61736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572E2962-0028-4FBC-9F7D-2FCDDEE2BC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hello World Component" sheetId="1" r:id="rId1"/>
     <sheet name="Data Binding" sheetId="2" r:id="rId2"/>
     <sheet name="Applying CSS" sheetId="3" r:id="rId3"/>
+    <sheet name="Conditional Rendering" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="98">
   <si>
     <t>構成</t>
   </si>
@@ -254,9 +255,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">track: To create a binding of property in our Lingtning Web Component. The first thing that we need to </t>
-  </si>
-  <si>
     <t xml:space="preserve">do for that is to create this property as a trackable properties. When a property is the trackable, it creates </t>
   </si>
   <si>
@@ -346,6 +344,91 @@
   </si>
   <si>
     <t>dynamically so all css style that we applied using id selector will not work because the id itself will change</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>elloWorld Phải được để ở dạng PascalCase</t>
+    </r>
+  </si>
+  <si>
+    <t>conditionalRenderingExample</t>
+  </si>
+  <si>
+    <t>conditionalRenderingExample.html</t>
+  </si>
+  <si>
+    <t>conditionalRenderingExample.js</t>
+  </si>
+  <si>
+    <t>conditionalRenderingExample.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\conditionalRenderingExample\conditionalRenderingExample.html</t>
+  </si>
+  <si>
+    <t>    &lt;lightning-input type="checkbox" label="Show Div" onchange={showDivHandler}&gt;&lt;/lightning-input&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;template if:true={displayDiv}&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;div&gt;I am here&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;/template&gt;</t>
+  </si>
+  <si>
+    <t>display base on condition</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\conditionalRenderingExample\conditionalRenderingExample.js</t>
+  </si>
+  <si>
+    <t>import { LightningElement, track } from 'lwc';</t>
+  </si>
+  <si>
+    <t>export default class ConditionalRenderingExample extends LightningElement {</t>
+  </si>
+  <si>
+    <t>    @track displayDiv = false;</t>
+  </si>
+  <si>
+    <t>    showDivHandler(event){</t>
+  </si>
+  <si>
+    <t>        this.displayDiv = event.target.checked;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">track(decorator): To create a binding of property in our Lingtning Web Component. The first thing that we need to </t>
+  </si>
+  <si>
+    <t>Click "Edit Page" to go to app builder page</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\conditionalRenderingExample\conditionalRenderingExample.js-meta.xml</t>
+  </si>
+  <si>
+    <t>Hiên thị ban đầu</t>
+  </si>
+  <si>
+    <t>Chọn check box thì div được hiển thị</t>
   </si>
 </sst>
 </file>
@@ -474,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -488,8 +571,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,13 +644,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>67844</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -601,13 +688,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>235324</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>21536</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -645,13 +732,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -698,13 +785,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>280147</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>186333</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -742,13 +829,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>72829</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -786,13 +873,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>78442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>93872</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -830,13 +917,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>67234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>137646</xdr:colOff>
-      <xdr:row>232</xdr:row>
+      <xdr:row>233</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -874,6 +961,59 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0CAC024-7498-5B52-48FF-D5E194EE72AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2140324" y="6443382"/>
+          <a:ext cx="56029" cy="5670177"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1181,6 +1321,59 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC77F3E6-9C04-D522-8B19-5160F082F7EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1949824" y="6073588"/>
+          <a:ext cx="4157382" cy="291353"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1287,6 +1480,346 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>437030</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>37392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B4C5B3A-3A88-227F-D318-1F80A00208FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="719418" y="12449175"/>
+          <a:ext cx="11214847" cy="5495217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>29975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E943532D-D656-0D09-85A3-723DA5DF68D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="18198353"/>
+          <a:ext cx="11138647" cy="4501122"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCDD14C3-D36B-1E1A-0963-0B72D13E48D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2521324" y="19868029"/>
+          <a:ext cx="885264" cy="1568824"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>128646</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8786B64F-9813-C4C3-866E-4047C61C49BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="795618" y="23319441"/>
+          <a:ext cx="10354235" cy="3479205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>134468</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>56028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>128908</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94B79F9F-CB92-3EA9-6DC8-4BA3360A85A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="739586" y="27107028"/>
+          <a:ext cx="10399061" cy="3501880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72EA79BF-E439-0A4E-7116-741E57CA1AC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1243853" y="27062206"/>
+          <a:ext cx="661147" cy="1848970"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B526982-1763-EDDC-27FC-ACC7B0988344}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="694765" y="27028588"/>
+          <a:ext cx="190500" cy="1703294"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1555,10 +2088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:T233"/>
+  <dimension ref="A3:T234"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V84" sqref="V84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1976,6 +2509,9 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
+      <c r="B64" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="T64" s="6"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
@@ -2651,26 +3187,30 @@
       <c r="T232" s="6"/>
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A233" s="7"/>
-      <c r="B233" s="8"/>
-      <c r="C233" s="8"/>
-      <c r="D233" s="8"/>
-      <c r="E233" s="8"/>
-      <c r="F233" s="8"/>
-      <c r="G233" s="8"/>
-      <c r="H233" s="8"/>
-      <c r="I233" s="8"/>
-      <c r="J233" s="8"/>
-      <c r="K233" s="8"/>
-      <c r="L233" s="8"/>
-      <c r="M233" s="8"/>
-      <c r="N233" s="8"/>
-      <c r="O233" s="8"/>
-      <c r="P233" s="8"/>
-      <c r="Q233" s="8"/>
-      <c r="R233" s="8"/>
-      <c r="S233" s="8"/>
-      <c r="T233" s="9"/>
+      <c r="A233" s="5"/>
+      <c r="T233" s="6"/>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A234" s="7"/>
+      <c r="B234" s="8"/>
+      <c r="C234" s="8"/>
+      <c r="D234" s="8"/>
+      <c r="E234" s="8"/>
+      <c r="F234" s="8"/>
+      <c r="G234" s="8"/>
+      <c r="H234" s="8"/>
+      <c r="I234" s="8"/>
+      <c r="J234" s="8"/>
+      <c r="K234" s="8"/>
+      <c r="L234" s="8"/>
+      <c r="M234" s="8"/>
+      <c r="N234" s="8"/>
+      <c r="O234" s="8"/>
+      <c r="P234" s="8"/>
+      <c r="Q234" s="8"/>
+      <c r="R234" s="8"/>
+      <c r="S234" s="8"/>
+      <c r="T234" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2683,8 +3223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B3AC35-7153-402C-90FA-BC819FC21131}">
   <dimension ref="A4:T101"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2850,7 +3390,7 @@
         <v>7</v>
       </c>
       <c r="M24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2893,14 +3433,14 @@
         <v>7</v>
       </c>
       <c r="K30" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="I31" s="6"/>
       <c r="K31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2909,7 +3449,7 @@
       </c>
       <c r="I32" s="6"/>
       <c r="K32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -2918,12 +3458,15 @@
       </c>
       <c r="I33" s="6"/>
       <c r="K33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B34" s="10"/>
       <c r="I34" s="6"/>
+      <c r="K34" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
@@ -2957,7 +3500,7 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2982,7 +3525,7 @@
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T42" s="6"/>
     </row>
@@ -3105,7 +3648,7 @@
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T72" s="6"/>
     </row>
@@ -3253,20 +3796,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1380C9EE-1D10-4AFA-A1E6-EA9B9D5B2B69}">
   <dimension ref="A2:T77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3339,14 +3882,14 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="H14" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" t="s">
         <v>7</v>
       </c>
       <c r="L14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -3366,7 +3909,7 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="13" t="s">
+      <c r="H16" t="s">
         <v>40</v>
       </c>
       <c r="J16" s="6"/>
@@ -3420,102 +3963,46 @@
       <c r="B24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
+        <v>63</v>
+      </c>
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
+        <v>61</v>
+      </c>
       <c r="K26" s="6"/>
       <c r="L26" t="s">
         <v>7</v>
       </c>
       <c r="M26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
       <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
+        <v>62</v>
+      </c>
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
       <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
       <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -3534,12 +4021,12 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -3547,76 +4034,58 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
+        <v>66</v>
+      </c>
       <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
       <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
       <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
+        <v>67</v>
+      </c>
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
+        <v>68</v>
+      </c>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
       <c r="E41" s="6"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
       <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
+        <v>69</v>
+      </c>
       <c r="E43" s="6"/>
       <c r="F43" t="s">
         <v>7</v>
       </c>
       <c r="G43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
+        <v>70</v>
+      </c>
       <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
@@ -3629,7 +4098,7 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3653,618 +4122,114 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="14"/>
       <c r="T49" s="6"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="14"/>
-      <c r="R50" s="14"/>
-      <c r="S50" s="14"/>
       <c r="T50" s="6"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="14"/>
-      <c r="S51" s="14"/>
       <c r="T51" s="6"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
-      <c r="R52" s="14"/>
-      <c r="S52" s="14"/>
       <c r="T52" s="6"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="14"/>
-      <c r="P53" s="14"/>
-      <c r="Q53" s="14"/>
-      <c r="R53" s="14"/>
-      <c r="S53" s="14"/>
       <c r="T53" s="6"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="14"/>
       <c r="T54" s="6"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="14"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="14"/>
-      <c r="R55" s="14"/>
-      <c r="S55" s="14"/>
       <c r="T55" s="6"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="14"/>
-      <c r="Q56" s="14"/>
-      <c r="R56" s="14"/>
-      <c r="S56" s="14"/>
       <c r="T56" s="6"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="14"/>
-      <c r="P57" s="14"/>
-      <c r="Q57" s="14"/>
-      <c r="R57" s="14"/>
-      <c r="S57" s="14"/>
       <c r="T57" s="6"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="14"/>
-      <c r="P58" s="14"/>
-      <c r="Q58" s="14"/>
-      <c r="R58" s="14"/>
-      <c r="S58" s="14"/>
       <c r="T58" s="6"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="14"/>
-      <c r="P59" s="14"/>
-      <c r="Q59" s="14"/>
-      <c r="R59" s="14"/>
-      <c r="S59" s="14"/>
       <c r="T59" s="6"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="14"/>
-      <c r="O60" s="14"/>
-      <c r="P60" s="14"/>
-      <c r="Q60" s="14"/>
-      <c r="R60" s="14"/>
-      <c r="S60" s="14"/>
       <c r="T60" s="6"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
-      <c r="P61" s="14"/>
-      <c r="Q61" s="14"/>
-      <c r="R61" s="14"/>
-      <c r="S61" s="14"/>
       <c r="T61" s="6"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="14"/>
-      <c r="O62" s="14"/>
-      <c r="P62" s="14"/>
-      <c r="Q62" s="14"/>
-      <c r="R62" s="14"/>
-      <c r="S62" s="14"/>
       <c r="T62" s="6"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
-      <c r="O63" s="14"/>
-      <c r="P63" s="14"/>
-      <c r="Q63" s="14"/>
-      <c r="R63" s="14"/>
-      <c r="S63" s="14"/>
       <c r="T63" s="6"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="14"/>
-      <c r="O64" s="14"/>
-      <c r="P64" s="14"/>
-      <c r="Q64" s="14"/>
-      <c r="R64" s="14"/>
-      <c r="S64" s="14"/>
       <c r="T64" s="6"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="14"/>
-      <c r="N65" s="14"/>
-      <c r="O65" s="14"/>
-      <c r="P65" s="14"/>
-      <c r="Q65" s="14"/>
-      <c r="R65" s="14"/>
-      <c r="S65" s="14"/>
       <c r="T65" s="6"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="14"/>
-      <c r="N66" s="14"/>
-      <c r="O66" s="14"/>
-      <c r="P66" s="14"/>
-      <c r="Q66" s="14"/>
-      <c r="R66" s="14"/>
-      <c r="S66" s="14"/>
       <c r="T66" s="6"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="14"/>
-      <c r="O67" s="14"/>
-      <c r="P67" s="14"/>
-      <c r="Q67" s="14"/>
-      <c r="R67" s="14"/>
-      <c r="S67" s="14"/>
       <c r="T67" s="6"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="14"/>
-      <c r="N68" s="14"/>
-      <c r="O68" s="14"/>
-      <c r="P68" s="14"/>
-      <c r="Q68" s="14"/>
-      <c r="R68" s="14"/>
-      <c r="S68" s="14"/>
       <c r="T68" s="6"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="14"/>
-      <c r="O69" s="14"/>
-      <c r="P69" s="14"/>
-      <c r="Q69" s="14"/>
-      <c r="R69" s="14"/>
-      <c r="S69" s="14"/>
       <c r="T69" s="6"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="14"/>
-      <c r="O70" s="14"/>
-      <c r="P70" s="14"/>
-      <c r="Q70" s="14"/>
-      <c r="R70" s="14"/>
-      <c r="S70" s="14"/>
       <c r="T70" s="6"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="14"/>
-      <c r="N71" s="14"/>
-      <c r="O71" s="14"/>
-      <c r="P71" s="14"/>
-      <c r="Q71" s="14"/>
-      <c r="R71" s="14"/>
-      <c r="S71" s="14"/>
       <c r="T71" s="6"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="14"/>
-      <c r="O72" s="14"/>
-      <c r="P72" s="14"/>
-      <c r="Q72" s="14"/>
-      <c r="R72" s="14"/>
-      <c r="S72" s="14"/>
       <c r="T72" s="6"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
-      <c r="N73" s="14"/>
-      <c r="O73" s="14"/>
-      <c r="P73" s="14"/>
-      <c r="Q73" s="14"/>
-      <c r="R73" s="14"/>
-      <c r="S73" s="14"/>
       <c r="T73" s="6"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14"/>
-      <c r="N74" s="14"/>
-      <c r="O74" s="14"/>
-      <c r="P74" s="14"/>
-      <c r="Q74" s="14"/>
-      <c r="R74" s="14"/>
-      <c r="S74" s="14"/>
       <c r="T74" s="6"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="14"/>
-      <c r="N75" s="14"/>
-      <c r="O75" s="14"/>
-      <c r="P75" s="14"/>
-      <c r="Q75" s="14"/>
-      <c r="R75" s="14"/>
-      <c r="S75" s="14"/>
       <c r="T75" s="6"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="14"/>
-      <c r="K76" s="14"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="14"/>
-      <c r="N76" s="14"/>
-      <c r="O76" s="14"/>
-      <c r="P76" s="14"/>
-      <c r="Q76" s="14"/>
-      <c r="R76" s="14"/>
-      <c r="S76" s="14"/>
       <c r="T76" s="6"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
@@ -4293,4 +4258,2922 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4130253-0616-40DA-B093-EE94F22CCD0C}">
+  <dimension ref="A3:T162"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V148" sqref="V148"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="6"/>
+      <c r="M11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="6"/>
+      <c r="L28" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="6"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="6"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="9"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="6"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="6"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="6"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B56" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="6"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B57" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="6"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B58" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="6"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="6"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B60" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="9"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="4"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="B64" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13"/>
+      <c r="S64" s="13"/>
+      <c r="T64" s="6"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13"/>
+      <c r="S65" s="13"/>
+      <c r="T65" s="6"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="13"/>
+      <c r="R66" s="13"/>
+      <c r="S66" s="13"/>
+      <c r="T66" s="6"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="13"/>
+      <c r="R67" s="13"/>
+      <c r="S67" s="13"/>
+      <c r="T67" s="6"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="13"/>
+      <c r="R68" s="13"/>
+      <c r="S68" s="13"/>
+      <c r="T68" s="6"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13"/>
+      <c r="R69" s="13"/>
+      <c r="S69" s="13"/>
+      <c r="T69" s="6"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="13"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="13"/>
+      <c r="R70" s="13"/>
+      <c r="S70" s="13"/>
+      <c r="T70" s="6"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="13"/>
+      <c r="Q71" s="13"/>
+      <c r="R71" s="13"/>
+      <c r="S71" s="13"/>
+      <c r="T71" s="6"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="13"/>
+      <c r="S72" s="13"/>
+      <c r="T72" s="6"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13"/>
+      <c r="R73" s="13"/>
+      <c r="S73" s="13"/>
+      <c r="T73" s="6"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="13"/>
+      <c r="O74" s="13"/>
+      <c r="P74" s="13"/>
+      <c r="Q74" s="13"/>
+      <c r="R74" s="13"/>
+      <c r="S74" s="13"/>
+      <c r="T74" s="6"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13"/>
+      <c r="S75" s="13"/>
+      <c r="T75" s="6"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
+      <c r="R76" s="13"/>
+      <c r="S76" s="13"/>
+      <c r="T76" s="6"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
+      <c r="R77" s="13"/>
+      <c r="S77" s="13"/>
+      <c r="T77" s="6"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13"/>
+      <c r="R78" s="13"/>
+      <c r="S78" s="13"/>
+      <c r="T78" s="6"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="13"/>
+      <c r="R79" s="13"/>
+      <c r="S79" s="13"/>
+      <c r="T79" s="6"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="13"/>
+      <c r="O80" s="13"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="13"/>
+      <c r="R80" s="13"/>
+      <c r="S80" s="13"/>
+      <c r="T80" s="6"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="13"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="13"/>
+      <c r="Q81" s="13"/>
+      <c r="R81" s="13"/>
+      <c r="S81" s="13"/>
+      <c r="T81" s="6"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="13"/>
+      <c r="O82" s="13"/>
+      <c r="P82" s="13"/>
+      <c r="Q82" s="13"/>
+      <c r="R82" s="13"/>
+      <c r="S82" s="13"/>
+      <c r="T82" s="6"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" s="5"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="13"/>
+      <c r="N83" s="13"/>
+      <c r="O83" s="13"/>
+      <c r="P83" s="13"/>
+      <c r="Q83" s="13"/>
+      <c r="R83" s="13"/>
+      <c r="S83" s="13"/>
+      <c r="T83" s="6"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="13"/>
+      <c r="N84" s="13"/>
+      <c r="O84" s="13"/>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="13"/>
+      <c r="R84" s="13"/>
+      <c r="S84" s="13"/>
+      <c r="T84" s="6"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" s="5"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
+      <c r="O85" s="13"/>
+      <c r="P85" s="13"/>
+      <c r="Q85" s="13"/>
+      <c r="R85" s="13"/>
+      <c r="S85" s="13"/>
+      <c r="T85" s="6"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" s="5"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="13"/>
+      <c r="O86" s="13"/>
+      <c r="P86" s="13"/>
+      <c r="Q86" s="13"/>
+      <c r="R86" s="13"/>
+      <c r="S86" s="13"/>
+      <c r="T86" s="6"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
+      <c r="O87" s="13"/>
+      <c r="P87" s="13"/>
+      <c r="Q87" s="13"/>
+      <c r="R87" s="13"/>
+      <c r="S87" s="13"/>
+      <c r="T87" s="6"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="13"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
+      <c r="O88" s="13"/>
+      <c r="P88" s="13"/>
+      <c r="Q88" s="13"/>
+      <c r="R88" s="13"/>
+      <c r="S88" s="13"/>
+      <c r="T88" s="6"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" s="5"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="13"/>
+      <c r="M89" s="13"/>
+      <c r="N89" s="13"/>
+      <c r="O89" s="13"/>
+      <c r="P89" s="13"/>
+      <c r="Q89" s="13"/>
+      <c r="R89" s="13"/>
+      <c r="S89" s="13"/>
+      <c r="T89" s="6"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" s="5"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="13"/>
+      <c r="L90" s="13"/>
+      <c r="M90" s="13"/>
+      <c r="N90" s="13"/>
+      <c r="O90" s="13"/>
+      <c r="P90" s="13"/>
+      <c r="Q90" s="13"/>
+      <c r="R90" s="13"/>
+      <c r="S90" s="13"/>
+      <c r="T90" s="6"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="13"/>
+      <c r="K91" s="13"/>
+      <c r="L91" s="13"/>
+      <c r="M91" s="13"/>
+      <c r="N91" s="13"/>
+      <c r="O91" s="13"/>
+      <c r="P91" s="13"/>
+      <c r="Q91" s="13"/>
+      <c r="R91" s="13"/>
+      <c r="S91" s="13"/>
+      <c r="T91" s="6"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="5"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="13"/>
+      <c r="K92" s="13"/>
+      <c r="L92" s="13"/>
+      <c r="M92" s="13"/>
+      <c r="N92" s="13"/>
+      <c r="O92" s="13"/>
+      <c r="P92" s="13"/>
+      <c r="Q92" s="13"/>
+      <c r="R92" s="13"/>
+      <c r="S92" s="13"/>
+      <c r="T92" s="6"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" s="5"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="13"/>
+      <c r="K93" s="13"/>
+      <c r="L93" s="13"/>
+      <c r="M93" s="13"/>
+      <c r="N93" s="13"/>
+      <c r="O93" s="13"/>
+      <c r="P93" s="13"/>
+      <c r="Q93" s="13"/>
+      <c r="R93" s="13"/>
+      <c r="S93" s="13"/>
+      <c r="T93" s="6"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" s="5"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
+      <c r="O94" s="13"/>
+      <c r="P94" s="13"/>
+      <c r="Q94" s="13"/>
+      <c r="R94" s="13"/>
+      <c r="S94" s="13"/>
+      <c r="T94" s="6"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" s="5"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="13"/>
+      <c r="M95" s="13"/>
+      <c r="N95" s="13"/>
+      <c r="O95" s="13"/>
+      <c r="P95" s="13"/>
+      <c r="Q95" s="13"/>
+      <c r="R95" s="13"/>
+      <c r="S95" s="13"/>
+      <c r="T95" s="6"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" s="5"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="13"/>
+      <c r="K96" s="13"/>
+      <c r="L96" s="13"/>
+      <c r="M96" s="13"/>
+      <c r="N96" s="13"/>
+      <c r="O96" s="13"/>
+      <c r="P96" s="13"/>
+      <c r="Q96" s="13"/>
+      <c r="R96" s="13"/>
+      <c r="S96" s="13"/>
+      <c r="T96" s="6"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" s="5"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="13"/>
+      <c r="K97" s="13"/>
+      <c r="L97" s="13"/>
+      <c r="M97" s="13"/>
+      <c r="N97" s="13"/>
+      <c r="O97" s="13"/>
+      <c r="P97" s="13"/>
+      <c r="Q97" s="13"/>
+      <c r="R97" s="13"/>
+      <c r="S97" s="13"/>
+      <c r="T97" s="6"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98" s="5"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="13"/>
+      <c r="M98" s="13"/>
+      <c r="N98" s="13"/>
+      <c r="O98" s="13"/>
+      <c r="P98" s="13"/>
+      <c r="Q98" s="13"/>
+      <c r="R98" s="13"/>
+      <c r="S98" s="13"/>
+      <c r="T98" s="6"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99" s="5"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="13"/>
+      <c r="K99" s="13"/>
+      <c r="L99" s="13"/>
+      <c r="M99" s="13"/>
+      <c r="N99" s="13"/>
+      <c r="O99" s="13"/>
+      <c r="P99" s="13"/>
+      <c r="Q99" s="13"/>
+      <c r="R99" s="13"/>
+      <c r="S99" s="13"/>
+      <c r="T99" s="6"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" s="5"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="13"/>
+      <c r="K100" s="13"/>
+      <c r="L100" s="13"/>
+      <c r="M100" s="13"/>
+      <c r="N100" s="13"/>
+      <c r="O100" s="13"/>
+      <c r="P100" s="13"/>
+      <c r="Q100" s="13"/>
+      <c r="R100" s="13"/>
+      <c r="S100" s="13"/>
+      <c r="T100" s="6"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101" s="5"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="13"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="13"/>
+      <c r="N101" s="13"/>
+      <c r="O101" s="13"/>
+      <c r="P101" s="13"/>
+      <c r="Q101" s="13"/>
+      <c r="R101" s="13"/>
+      <c r="S101" s="13"/>
+      <c r="T101" s="6"/>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102" s="5"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="13"/>
+      <c r="K102" s="13"/>
+      <c r="L102" s="13"/>
+      <c r="M102" s="13"/>
+      <c r="N102" s="13"/>
+      <c r="O102" s="13"/>
+      <c r="P102" s="13"/>
+      <c r="Q102" s="13"/>
+      <c r="R102" s="13"/>
+      <c r="S102" s="13"/>
+      <c r="T102" s="6"/>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A103" s="5"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13"/>
+      <c r="J103" s="13"/>
+      <c r="K103" s="13"/>
+      <c r="L103" s="13"/>
+      <c r="M103" s="13"/>
+      <c r="N103" s="13"/>
+      <c r="O103" s="13"/>
+      <c r="P103" s="13"/>
+      <c r="Q103" s="13"/>
+      <c r="R103" s="13"/>
+      <c r="S103" s="13"/>
+      <c r="T103" s="6"/>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A104" s="5"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="13"/>
+      <c r="K104" s="13"/>
+      <c r="L104" s="13"/>
+      <c r="M104" s="13"/>
+      <c r="N104" s="13"/>
+      <c r="O104" s="13"/>
+      <c r="P104" s="13"/>
+      <c r="Q104" s="13"/>
+      <c r="R104" s="13"/>
+      <c r="S104" s="13"/>
+      <c r="T104" s="6"/>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A105" s="5"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="13"/>
+      <c r="K105" s="13"/>
+      <c r="L105" s="13"/>
+      <c r="M105" s="13"/>
+      <c r="N105" s="13"/>
+      <c r="O105" s="13"/>
+      <c r="P105" s="13"/>
+      <c r="Q105" s="13"/>
+      <c r="R105" s="13"/>
+      <c r="S105" s="13"/>
+      <c r="T105" s="6"/>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A106" s="5"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13"/>
+      <c r="J106" s="13"/>
+      <c r="K106" s="13"/>
+      <c r="L106" s="13"/>
+      <c r="M106" s="13"/>
+      <c r="N106" s="13"/>
+      <c r="O106" s="13"/>
+      <c r="P106" s="13"/>
+      <c r="Q106" s="13"/>
+      <c r="R106" s="13"/>
+      <c r="S106" s="13"/>
+      <c r="T106" s="6"/>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A107" s="5"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="13"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="13"/>
+      <c r="M107" s="13"/>
+      <c r="N107" s="13"/>
+      <c r="O107" s="13"/>
+      <c r="P107" s="13"/>
+      <c r="Q107" s="13"/>
+      <c r="R107" s="13"/>
+      <c r="S107" s="13"/>
+      <c r="T107" s="6"/>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A108" s="5"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13"/>
+      <c r="J108" s="13"/>
+      <c r="K108" s="13"/>
+      <c r="L108" s="13"/>
+      <c r="M108" s="13"/>
+      <c r="N108" s="13"/>
+      <c r="O108" s="13"/>
+      <c r="P108" s="13"/>
+      <c r="Q108" s="13"/>
+      <c r="R108" s="13"/>
+      <c r="S108" s="13"/>
+      <c r="T108" s="6"/>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A109" s="5"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="13"/>
+      <c r="J109" s="13"/>
+      <c r="K109" s="13"/>
+      <c r="L109" s="13"/>
+      <c r="M109" s="13"/>
+      <c r="N109" s="13"/>
+      <c r="O109" s="13"/>
+      <c r="P109" s="13"/>
+      <c r="Q109" s="13"/>
+      <c r="R109" s="13"/>
+      <c r="S109" s="13"/>
+      <c r="T109" s="6"/>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A110" s="5"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="13"/>
+      <c r="J110" s="13"/>
+      <c r="K110" s="13"/>
+      <c r="L110" s="13"/>
+      <c r="M110" s="13"/>
+      <c r="N110" s="13"/>
+      <c r="O110" s="13"/>
+      <c r="P110" s="13"/>
+      <c r="Q110" s="13"/>
+      <c r="R110" s="13"/>
+      <c r="S110" s="13"/>
+      <c r="T110" s="6"/>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A111" s="5"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="13"/>
+      <c r="K111" s="13"/>
+      <c r="L111" s="13"/>
+      <c r="M111" s="13"/>
+      <c r="N111" s="13"/>
+      <c r="O111" s="13"/>
+      <c r="P111" s="13"/>
+      <c r="Q111" s="13"/>
+      <c r="R111" s="13"/>
+      <c r="S111" s="13"/>
+      <c r="T111" s="6"/>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A112" s="5"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="13"/>
+      <c r="I112" s="13"/>
+      <c r="J112" s="13"/>
+      <c r="K112" s="13"/>
+      <c r="L112" s="13"/>
+      <c r="M112" s="13"/>
+      <c r="N112" s="13"/>
+      <c r="O112" s="13"/>
+      <c r="P112" s="13"/>
+      <c r="Q112" s="13"/>
+      <c r="R112" s="13"/>
+      <c r="S112" s="13"/>
+      <c r="T112" s="6"/>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A113" s="5"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="13"/>
+      <c r="I113" s="13"/>
+      <c r="J113" s="13"/>
+      <c r="K113" s="13"/>
+      <c r="L113" s="13"/>
+      <c r="M113" s="13"/>
+      <c r="N113" s="13"/>
+      <c r="O113" s="13"/>
+      <c r="P113" s="13"/>
+      <c r="Q113" s="13"/>
+      <c r="R113" s="13"/>
+      <c r="S113" s="13"/>
+      <c r="T113" s="6"/>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A114" s="5"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="13"/>
+      <c r="J114" s="13"/>
+      <c r="K114" s="13"/>
+      <c r="L114" s="13"/>
+      <c r="M114" s="13"/>
+      <c r="N114" s="13"/>
+      <c r="O114" s="13"/>
+      <c r="P114" s="13"/>
+      <c r="Q114" s="13"/>
+      <c r="R114" s="13"/>
+      <c r="S114" s="13"/>
+      <c r="T114" s="6"/>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A115" s="5"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="13"/>
+      <c r="J115" s="13"/>
+      <c r="K115" s="13"/>
+      <c r="L115" s="13"/>
+      <c r="M115" s="13"/>
+      <c r="N115" s="13"/>
+      <c r="O115" s="13"/>
+      <c r="P115" s="13"/>
+      <c r="Q115" s="13"/>
+      <c r="R115" s="13"/>
+      <c r="S115" s="13"/>
+      <c r="T115" s="6"/>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A116" s="5"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="13"/>
+      <c r="J116" s="13"/>
+      <c r="K116" s="13"/>
+      <c r="L116" s="13"/>
+      <c r="M116" s="13"/>
+      <c r="N116" s="13"/>
+      <c r="O116" s="13"/>
+      <c r="P116" s="13"/>
+      <c r="Q116" s="13"/>
+      <c r="R116" s="13"/>
+      <c r="S116" s="13"/>
+      <c r="T116" s="6"/>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A117" s="5"/>
+      <c r="B117" s="13"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="13"/>
+      <c r="J117" s="13"/>
+      <c r="K117" s="13"/>
+      <c r="L117" s="13"/>
+      <c r="M117" s="13"/>
+      <c r="N117" s="13"/>
+      <c r="O117" s="13"/>
+      <c r="P117" s="13"/>
+      <c r="Q117" s="13"/>
+      <c r="R117" s="13"/>
+      <c r="S117" s="13"/>
+      <c r="T117" s="6"/>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A118" s="5"/>
+      <c r="B118" s="13"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="13"/>
+      <c r="J118" s="13"/>
+      <c r="K118" s="13"/>
+      <c r="L118" s="13"/>
+      <c r="M118" s="13"/>
+      <c r="N118" s="13"/>
+      <c r="O118" s="13"/>
+      <c r="P118" s="13"/>
+      <c r="Q118" s="13"/>
+      <c r="R118" s="13"/>
+      <c r="S118" s="13"/>
+      <c r="T118" s="6"/>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A119" s="5"/>
+      <c r="B119" s="13"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="13"/>
+      <c r="J119" s="13"/>
+      <c r="K119" s="13"/>
+      <c r="L119" s="13"/>
+      <c r="M119" s="13"/>
+      <c r="N119" s="13"/>
+      <c r="O119" s="13"/>
+      <c r="P119" s="13"/>
+      <c r="Q119" s="13"/>
+      <c r="R119" s="13"/>
+      <c r="S119" s="13"/>
+      <c r="T119" s="6"/>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A120" s="5"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
+      <c r="J120" s="13"/>
+      <c r="K120" s="13"/>
+      <c r="L120" s="13"/>
+      <c r="M120" s="13"/>
+      <c r="N120" s="13"/>
+      <c r="O120" s="13"/>
+      <c r="P120" s="13"/>
+      <c r="Q120" s="13"/>
+      <c r="R120" s="13"/>
+      <c r="S120" s="13"/>
+      <c r="T120" s="6"/>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A121" s="5"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="13"/>
+      <c r="I121" s="13"/>
+      <c r="J121" s="13"/>
+      <c r="K121" s="13"/>
+      <c r="L121" s="13"/>
+      <c r="M121" s="13"/>
+      <c r="N121" s="13"/>
+      <c r="O121" s="13"/>
+      <c r="P121" s="13"/>
+      <c r="Q121" s="13"/>
+      <c r="R121" s="13"/>
+      <c r="S121" s="13"/>
+      <c r="T121" s="6"/>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A122" s="5"/>
+      <c r="B122" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="3"/>
+      <c r="M122" s="3"/>
+      <c r="N122" s="3"/>
+      <c r="O122" s="3"/>
+      <c r="P122" s="3"/>
+      <c r="Q122" s="3"/>
+      <c r="R122" s="3"/>
+      <c r="S122" s="4"/>
+      <c r="T122" s="6"/>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="13"/>
+      <c r="I123" s="13"/>
+      <c r="J123" s="13"/>
+      <c r="K123" s="13"/>
+      <c r="L123" s="13"/>
+      <c r="M123" s="13"/>
+      <c r="N123" s="13"/>
+      <c r="O123" s="13"/>
+      <c r="P123" s="13"/>
+      <c r="Q123" s="13"/>
+      <c r="R123" s="13"/>
+      <c r="S123" s="6"/>
+      <c r="T123" s="6"/>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="13"/>
+      <c r="I124" s="13"/>
+      <c r="J124" s="13"/>
+      <c r="K124" s="13"/>
+      <c r="L124" s="13"/>
+      <c r="M124" s="13"/>
+      <c r="N124" s="13"/>
+      <c r="O124" s="13"/>
+      <c r="P124" s="13"/>
+      <c r="Q124" s="13"/>
+      <c r="R124" s="13"/>
+      <c r="S124" s="6"/>
+      <c r="T124" s="6"/>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13"/>
+      <c r="G125" s="13"/>
+      <c r="H125" s="13"/>
+      <c r="I125" s="13"/>
+      <c r="J125" s="13"/>
+      <c r="K125" s="13"/>
+      <c r="L125" s="13"/>
+      <c r="M125" s="13"/>
+      <c r="N125" s="13"/>
+      <c r="O125" s="13"/>
+      <c r="P125" s="13"/>
+      <c r="Q125" s="13"/>
+      <c r="R125" s="13"/>
+      <c r="S125" s="6"/>
+      <c r="T125" s="6"/>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
+      <c r="J126" s="13"/>
+      <c r="K126" s="13"/>
+      <c r="L126" s="13"/>
+      <c r="M126" s="13"/>
+      <c r="N126" s="13"/>
+      <c r="O126" s="13"/>
+      <c r="P126" s="13"/>
+      <c r="Q126" s="13"/>
+      <c r="R126" s="13"/>
+      <c r="S126" s="6"/>
+      <c r="T126" s="6"/>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="13"/>
+      <c r="I127" s="13"/>
+      <c r="J127" s="13"/>
+      <c r="K127" s="13"/>
+      <c r="L127" s="13"/>
+      <c r="M127" s="13"/>
+      <c r="N127" s="13"/>
+      <c r="O127" s="13"/>
+      <c r="P127" s="13"/>
+      <c r="Q127" s="13"/>
+      <c r="R127" s="13"/>
+      <c r="S127" s="6"/>
+      <c r="T127" s="6"/>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="13"/>
+      <c r="I128" s="13"/>
+      <c r="J128" s="13"/>
+      <c r="K128" s="13"/>
+      <c r="L128" s="13"/>
+      <c r="M128" s="13"/>
+      <c r="N128" s="13"/>
+      <c r="O128" s="13"/>
+      <c r="P128" s="13"/>
+      <c r="Q128" s="13"/>
+      <c r="R128" s="13"/>
+      <c r="S128" s="6"/>
+      <c r="T128" s="6"/>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="13"/>
+      <c r="I129" s="13"/>
+      <c r="J129" s="13"/>
+      <c r="K129" s="13"/>
+      <c r="L129" s="13"/>
+      <c r="M129" s="13"/>
+      <c r="N129" s="13"/>
+      <c r="O129" s="13"/>
+      <c r="P129" s="13"/>
+      <c r="Q129" s="13"/>
+      <c r="R129" s="13"/>
+      <c r="S129" s="6"/>
+      <c r="T129" s="6"/>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13"/>
+      <c r="G130" s="13"/>
+      <c r="H130" s="13"/>
+      <c r="I130" s="13"/>
+      <c r="J130" s="13"/>
+      <c r="K130" s="13"/>
+      <c r="L130" s="13"/>
+      <c r="M130" s="13"/>
+      <c r="N130" s="13"/>
+      <c r="O130" s="13"/>
+      <c r="P130" s="13"/>
+      <c r="Q130" s="13"/>
+      <c r="R130" s="13"/>
+      <c r="S130" s="6"/>
+      <c r="T130" s="6"/>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="13"/>
+      <c r="I131" s="13"/>
+      <c r="J131" s="13"/>
+      <c r="K131" s="13"/>
+      <c r="L131" s="13"/>
+      <c r="M131" s="13"/>
+      <c r="N131" s="13"/>
+      <c r="O131" s="13"/>
+      <c r="P131" s="13"/>
+      <c r="Q131" s="13"/>
+      <c r="R131" s="13"/>
+      <c r="S131" s="6"/>
+      <c r="T131" s="6"/>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="13"/>
+      <c r="I132" s="13"/>
+      <c r="J132" s="13"/>
+      <c r="K132" s="13"/>
+      <c r="L132" s="13"/>
+      <c r="M132" s="13"/>
+      <c r="N132" s="13"/>
+      <c r="O132" s="13"/>
+      <c r="P132" s="13"/>
+      <c r="Q132" s="13"/>
+      <c r="R132" s="13"/>
+      <c r="S132" s="6"/>
+      <c r="T132" s="6"/>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="13"/>
+      <c r="I133" s="13"/>
+      <c r="J133" s="13"/>
+      <c r="K133" s="13"/>
+      <c r="L133" s="13"/>
+      <c r="M133" s="13"/>
+      <c r="N133" s="13"/>
+      <c r="O133" s="13"/>
+      <c r="P133" s="13"/>
+      <c r="Q133" s="13"/>
+      <c r="R133" s="13"/>
+      <c r="S133" s="6"/>
+      <c r="T133" s="6"/>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="13"/>
+      <c r="I134" s="13"/>
+      <c r="J134" s="13"/>
+      <c r="K134" s="13"/>
+      <c r="L134" s="13"/>
+      <c r="M134" s="13"/>
+      <c r="N134" s="13"/>
+      <c r="O134" s="13"/>
+      <c r="P134" s="13"/>
+      <c r="Q134" s="13"/>
+      <c r="R134" s="13"/>
+      <c r="S134" s="6"/>
+      <c r="T134" s="6"/>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="13"/>
+      <c r="G135" s="13"/>
+      <c r="H135" s="13"/>
+      <c r="I135" s="13"/>
+      <c r="J135" s="13"/>
+      <c r="K135" s="13"/>
+      <c r="L135" s="13"/>
+      <c r="M135" s="13"/>
+      <c r="N135" s="13"/>
+      <c r="O135" s="13"/>
+      <c r="P135" s="13"/>
+      <c r="Q135" s="13"/>
+      <c r="R135" s="13"/>
+      <c r="S135" s="6"/>
+      <c r="T135" s="6"/>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="13"/>
+      <c r="G136" s="13"/>
+      <c r="H136" s="13"/>
+      <c r="I136" s="13"/>
+      <c r="J136" s="13"/>
+      <c r="K136" s="13"/>
+      <c r="L136" s="13"/>
+      <c r="M136" s="13"/>
+      <c r="N136" s="13"/>
+      <c r="O136" s="13"/>
+      <c r="P136" s="13"/>
+      <c r="Q136" s="13"/>
+      <c r="R136" s="13"/>
+      <c r="S136" s="6"/>
+      <c r="T136" s="6"/>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="13"/>
+      <c r="G137" s="13"/>
+      <c r="H137" s="13"/>
+      <c r="I137" s="13"/>
+      <c r="J137" s="13"/>
+      <c r="K137" s="13"/>
+      <c r="L137" s="13"/>
+      <c r="M137" s="13"/>
+      <c r="N137" s="13"/>
+      <c r="O137" s="13"/>
+      <c r="P137" s="13"/>
+      <c r="Q137" s="13"/>
+      <c r="R137" s="13"/>
+      <c r="S137" s="6"/>
+      <c r="T137" s="6"/>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="13"/>
+      <c r="I138" s="13"/>
+      <c r="J138" s="13"/>
+      <c r="K138" s="13"/>
+      <c r="L138" s="13"/>
+      <c r="M138" s="13"/>
+      <c r="N138" s="13"/>
+      <c r="O138" s="13"/>
+      <c r="P138" s="13"/>
+      <c r="Q138" s="13"/>
+      <c r="R138" s="13"/>
+      <c r="S138" s="6"/>
+      <c r="T138" s="6"/>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13"/>
+      <c r="G139" s="13"/>
+      <c r="H139" s="13"/>
+      <c r="I139" s="13"/>
+      <c r="J139" s="13"/>
+      <c r="K139" s="13"/>
+      <c r="L139" s="13"/>
+      <c r="M139" s="13"/>
+      <c r="N139" s="13"/>
+      <c r="O139" s="13"/>
+      <c r="P139" s="13"/>
+      <c r="Q139" s="13"/>
+      <c r="R139" s="13"/>
+      <c r="S139" s="6"/>
+      <c r="T139" s="6"/>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="13"/>
+      <c r="G140" s="13"/>
+      <c r="H140" s="13"/>
+      <c r="I140" s="13"/>
+      <c r="J140" s="13"/>
+      <c r="K140" s="13"/>
+      <c r="L140" s="13"/>
+      <c r="M140" s="13"/>
+      <c r="N140" s="13"/>
+      <c r="O140" s="13"/>
+      <c r="P140" s="13"/>
+      <c r="Q140" s="13"/>
+      <c r="R140" s="13"/>
+      <c r="S140" s="6"/>
+      <c r="T140" s="6"/>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="13"/>
+      <c r="I141" s="13"/>
+      <c r="J141" s="13"/>
+      <c r="K141" s="13"/>
+      <c r="L141" s="13"/>
+      <c r="M141" s="13"/>
+      <c r="N141" s="13"/>
+      <c r="O141" s="13"/>
+      <c r="P141" s="13"/>
+      <c r="Q141" s="13"/>
+      <c r="R141" s="13"/>
+      <c r="S141" s="6"/>
+      <c r="T141" s="6"/>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C142" s="13"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13"/>
+      <c r="G142" s="13"/>
+      <c r="H142" s="13"/>
+      <c r="I142" s="13"/>
+      <c r="J142" s="13"/>
+      <c r="K142" s="13"/>
+      <c r="L142" s="13"/>
+      <c r="M142" s="13"/>
+      <c r="N142" s="13"/>
+      <c r="O142" s="13"/>
+      <c r="P142" s="13"/>
+      <c r="Q142" s="13"/>
+      <c r="R142" s="13"/>
+      <c r="S142" s="6"/>
+      <c r="T142" s="6"/>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="13"/>
+      <c r="G143" s="13"/>
+      <c r="H143" s="13"/>
+      <c r="I143" s="13"/>
+      <c r="J143" s="13"/>
+      <c r="K143" s="13"/>
+      <c r="L143" s="13"/>
+      <c r="M143" s="13"/>
+      <c r="N143" s="13"/>
+      <c r="O143" s="13"/>
+      <c r="P143" s="13"/>
+      <c r="Q143" s="13"/>
+      <c r="R143" s="13"/>
+      <c r="S143" s="6"/>
+      <c r="T143" s="6"/>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="13"/>
+      <c r="G144" s="13"/>
+      <c r="H144" s="13"/>
+      <c r="I144" s="13"/>
+      <c r="J144" s="13"/>
+      <c r="K144" s="13"/>
+      <c r="L144" s="13"/>
+      <c r="M144" s="13"/>
+      <c r="N144" s="13"/>
+      <c r="O144" s="13"/>
+      <c r="P144" s="13"/>
+      <c r="Q144" s="13"/>
+      <c r="R144" s="13"/>
+      <c r="S144" s="6"/>
+      <c r="T144" s="6"/>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="13"/>
+      <c r="G145" s="13"/>
+      <c r="H145" s="13"/>
+      <c r="I145" s="13"/>
+      <c r="J145" s="13"/>
+      <c r="K145" s="13"/>
+      <c r="L145" s="13"/>
+      <c r="M145" s="13"/>
+      <c r="N145" s="13"/>
+      <c r="O145" s="13"/>
+      <c r="P145" s="13"/>
+      <c r="Q145" s="13"/>
+      <c r="R145" s="13"/>
+      <c r="S145" s="6"/>
+      <c r="T145" s="6"/>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="13"/>
+      <c r="G146" s="13"/>
+      <c r="H146" s="13"/>
+      <c r="I146" s="13"/>
+      <c r="J146" s="13"/>
+      <c r="K146" s="13"/>
+      <c r="L146" s="13"/>
+      <c r="M146" s="13"/>
+      <c r="N146" s="13"/>
+      <c r="O146" s="13"/>
+      <c r="P146" s="13"/>
+      <c r="Q146" s="13"/>
+      <c r="R146" s="13"/>
+      <c r="S146" s="6"/>
+      <c r="T146" s="6"/>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="13"/>
+      <c r="G147" s="13"/>
+      <c r="H147" s="13"/>
+      <c r="I147" s="13"/>
+      <c r="J147" s="13"/>
+      <c r="K147" s="13"/>
+      <c r="L147" s="13"/>
+      <c r="M147" s="13"/>
+      <c r="N147" s="13"/>
+      <c r="O147" s="13"/>
+      <c r="P147" s="13"/>
+      <c r="Q147" s="13"/>
+      <c r="R147" s="13"/>
+      <c r="S147" s="6"/>
+      <c r="T147" s="6"/>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="13"/>
+      <c r="G148" s="13"/>
+      <c r="H148" s="13"/>
+      <c r="I148" s="13"/>
+      <c r="J148" s="13"/>
+      <c r="K148" s="13"/>
+      <c r="L148" s="13"/>
+      <c r="M148" s="13"/>
+      <c r="N148" s="13"/>
+      <c r="O148" s="13"/>
+      <c r="P148" s="13"/>
+      <c r="Q148" s="13"/>
+      <c r="R148" s="13"/>
+      <c r="S148" s="6"/>
+      <c r="T148" s="6"/>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A149" s="5"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="13"/>
+      <c r="G149" s="13"/>
+      <c r="H149" s="13"/>
+      <c r="I149" s="13"/>
+      <c r="J149" s="13"/>
+      <c r="K149" s="13"/>
+      <c r="L149" s="13"/>
+      <c r="M149" s="13"/>
+      <c r="N149" s="13"/>
+      <c r="O149" s="13"/>
+      <c r="P149" s="13"/>
+      <c r="Q149" s="13"/>
+      <c r="R149" s="13"/>
+      <c r="S149" s="6"/>
+      <c r="T149" s="6"/>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13"/>
+      <c r="G150" s="13"/>
+      <c r="H150" s="13"/>
+      <c r="I150" s="13"/>
+      <c r="J150" s="13"/>
+      <c r="K150" s="13"/>
+      <c r="L150" s="13"/>
+      <c r="M150" s="13"/>
+      <c r="N150" s="13"/>
+      <c r="O150" s="13"/>
+      <c r="P150" s="13"/>
+      <c r="Q150" s="13"/>
+      <c r="R150" s="13"/>
+      <c r="S150" s="6"/>
+      <c r="T150" s="6"/>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="13"/>
+      <c r="G151" s="13"/>
+      <c r="H151" s="13"/>
+      <c r="I151" s="13"/>
+      <c r="J151" s="13"/>
+      <c r="K151" s="13"/>
+      <c r="L151" s="13"/>
+      <c r="M151" s="13"/>
+      <c r="N151" s="13"/>
+      <c r="O151" s="13"/>
+      <c r="P151" s="13"/>
+      <c r="Q151" s="13"/>
+      <c r="R151" s="13"/>
+      <c r="S151" s="6"/>
+      <c r="T151" s="6"/>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13"/>
+      <c r="G152" s="13"/>
+      <c r="H152" s="13"/>
+      <c r="I152" s="13"/>
+      <c r="J152" s="13"/>
+      <c r="K152" s="13"/>
+      <c r="L152" s="13"/>
+      <c r="M152" s="13"/>
+      <c r="N152" s="13"/>
+      <c r="O152" s="13"/>
+      <c r="P152" s="13"/>
+      <c r="Q152" s="13"/>
+      <c r="R152" s="13"/>
+      <c r="S152" s="6"/>
+      <c r="T152" s="6"/>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A153" s="5"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13"/>
+      <c r="G153" s="13"/>
+      <c r="H153" s="13"/>
+      <c r="I153" s="13"/>
+      <c r="J153" s="13"/>
+      <c r="K153" s="13"/>
+      <c r="L153" s="13"/>
+      <c r="M153" s="13"/>
+      <c r="N153" s="13"/>
+      <c r="O153" s="13"/>
+      <c r="P153" s="13"/>
+      <c r="Q153" s="13"/>
+      <c r="R153" s="13"/>
+      <c r="S153" s="6"/>
+      <c r="T153" s="6"/>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13"/>
+      <c r="G154" s="13"/>
+      <c r="H154" s="13"/>
+      <c r="I154" s="13"/>
+      <c r="J154" s="13"/>
+      <c r="K154" s="13"/>
+      <c r="L154" s="13"/>
+      <c r="M154" s="13"/>
+      <c r="N154" s="13"/>
+      <c r="O154" s="13"/>
+      <c r="P154" s="13"/>
+      <c r="Q154" s="13"/>
+      <c r="R154" s="13"/>
+      <c r="S154" s="6"/>
+      <c r="T154" s="6"/>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="13"/>
+      <c r="G155" s="13"/>
+      <c r="H155" s="13"/>
+      <c r="I155" s="13"/>
+      <c r="J155" s="13"/>
+      <c r="K155" s="13"/>
+      <c r="L155" s="13"/>
+      <c r="M155" s="13"/>
+      <c r="N155" s="13"/>
+      <c r="O155" s="13"/>
+      <c r="P155" s="13"/>
+      <c r="Q155" s="13"/>
+      <c r="R155" s="13"/>
+      <c r="S155" s="6"/>
+      <c r="T155" s="6"/>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13"/>
+      <c r="G156" s="13"/>
+      <c r="H156" s="13"/>
+      <c r="I156" s="13"/>
+      <c r="J156" s="13"/>
+      <c r="K156" s="13"/>
+      <c r="L156" s="13"/>
+      <c r="M156" s="13"/>
+      <c r="N156" s="13"/>
+      <c r="O156" s="13"/>
+      <c r="P156" s="13"/>
+      <c r="Q156" s="13"/>
+      <c r="R156" s="13"/>
+      <c r="S156" s="6"/>
+      <c r="T156" s="6"/>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="13"/>
+      <c r="F157" s="13"/>
+      <c r="G157" s="13"/>
+      <c r="H157" s="13"/>
+      <c r="I157" s="13"/>
+      <c r="J157" s="13"/>
+      <c r="K157" s="13"/>
+      <c r="L157" s="13"/>
+      <c r="M157" s="13"/>
+      <c r="N157" s="13"/>
+      <c r="O157" s="13"/>
+      <c r="P157" s="13"/>
+      <c r="Q157" s="13"/>
+      <c r="R157" s="13"/>
+      <c r="S157" s="6"/>
+      <c r="T157" s="6"/>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="13"/>
+      <c r="G158" s="13"/>
+      <c r="H158" s="13"/>
+      <c r="I158" s="13"/>
+      <c r="J158" s="13"/>
+      <c r="K158" s="13"/>
+      <c r="L158" s="13"/>
+      <c r="M158" s="13"/>
+      <c r="N158" s="13"/>
+      <c r="O158" s="13"/>
+      <c r="P158" s="13"/>
+      <c r="Q158" s="13"/>
+      <c r="R158" s="13"/>
+      <c r="S158" s="6"/>
+      <c r="T158" s="6"/>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="13"/>
+      <c r="F159" s="13"/>
+      <c r="G159" s="13"/>
+      <c r="H159" s="13"/>
+      <c r="I159" s="13"/>
+      <c r="J159" s="13"/>
+      <c r="K159" s="13"/>
+      <c r="L159" s="13"/>
+      <c r="M159" s="13"/>
+      <c r="N159" s="13"/>
+      <c r="O159" s="13"/>
+      <c r="P159" s="13"/>
+      <c r="Q159" s="13"/>
+      <c r="R159" s="13"/>
+      <c r="S159" s="6"/>
+      <c r="T159" s="6"/>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="13"/>
+      <c r="G160" s="13"/>
+      <c r="H160" s="13"/>
+      <c r="I160" s="13"/>
+      <c r="J160" s="13"/>
+      <c r="K160" s="13"/>
+      <c r="L160" s="13"/>
+      <c r="M160" s="13"/>
+      <c r="N160" s="13"/>
+      <c r="O160" s="13"/>
+      <c r="P160" s="13"/>
+      <c r="Q160" s="13"/>
+      <c r="R160" s="13"/>
+      <c r="S160" s="6"/>
+      <c r="T160" s="6"/>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A161" s="5"/>
+      <c r="B161" s="7"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+      <c r="H161" s="8"/>
+      <c r="I161" s="8"/>
+      <c r="J161" s="8"/>
+      <c r="K161" s="8"/>
+      <c r="L161" s="8"/>
+      <c r="M161" s="8"/>
+      <c r="N161" s="8"/>
+      <c r="O161" s="8"/>
+      <c r="P161" s="8"/>
+      <c r="Q161" s="8"/>
+      <c r="R161" s="8"/>
+      <c r="S161" s="9"/>
+      <c r="T161" s="6"/>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A162" s="7"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="8"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
+      <c r="H162" s="8"/>
+      <c r="I162" s="8"/>
+      <c r="J162" s="8"/>
+      <c r="K162" s="8"/>
+      <c r="L162" s="8"/>
+      <c r="M162" s="8"/>
+      <c r="N162" s="8"/>
+      <c r="O162" s="8"/>
+      <c r="P162" s="8"/>
+      <c r="Q162" s="8"/>
+      <c r="R162" s="8"/>
+      <c r="S162" s="8"/>
+      <c r="T162" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/2.LWC-Fundamentals.xlsx
+++ b/me/2.LWC-Fundamentals.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\LightningWebComponent\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572E2962-0028-4FBC-9F7D-2FCDDEE2BC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE60C5E6-4737-4DC3-91B5-E4BF77F9BD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hello World Component" sheetId="1" r:id="rId1"/>
     <sheet name="Data Binding" sheetId="2" r:id="rId2"/>
     <sheet name="Applying CSS" sheetId="3" r:id="rId3"/>
     <sheet name="Conditional Rendering" sheetId="4" r:id="rId4"/>
+    <sheet name="Looping or Iteration" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="110">
   <si>
     <t>構成</t>
   </si>
@@ -429,6 +430,42 @@
   </si>
   <si>
     <t>Chọn check box thì div được hiển thị</t>
+  </si>
+  <si>
+    <t>    @track cityList = ['Jaipur', 'Bangluru', 'Hyderabad', 'Mumbai'];</t>
+  </si>
+  <si>
+    <t>    &lt;template for:each={cityList} for:item="city"&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;p key={city}&gt;{city}&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;h1&gt;Below is an example of iterator directive&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;template iterator:it={cityList}&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;p key={it.value}&gt;{it.value}&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>cityList: property</t>
+  </si>
+  <si>
+    <t>for:item -&gt; any name(item or something else)</t>
+  </si>
+  <si>
+    <t>iterator directive</t>
+  </si>
+  <si>
+    <t>the iterator has some advantages over for:each directive because in the iterator we can</t>
+  </si>
+  <si>
+    <t>identify the first and last element from list by using it.first and it.last</t>
+  </si>
+  <si>
+    <t>Check browser</t>
   </si>
 </sst>
 </file>
@@ -557,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -572,11 +609,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1825,6 +1857,167 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6349256D-80D5-D3AA-415A-F20AD853C9C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="5657850"/>
+          <a:ext cx="1028700" cy="2981325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9649B71F-D14E-F36F-C0E7-185255376F2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="5667375"/>
+          <a:ext cx="895350" cy="3905250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>30540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65639034-4854-9EF6-4682-20DD6CA3DC41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="10934699"/>
+          <a:ext cx="11010900" cy="3764341"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2509,7 +2702,7 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
-      <c r="B64" s="16" t="s">
+      <c r="B64" t="s">
         <v>94</v>
       </c>
       <c r="T64" s="6"/>
@@ -4264,8 +4457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4130253-0616-40DA-B093-EE94F22CCD0C}">
   <dimension ref="A3:T162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V148" sqref="V148"/>
+    <sheetView topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4292,107 +4485,51 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
-      <c r="C5" s="13" t="s">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13" t="s">
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13" t="s">
+      <c r="E7" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13" t="s">
+      <c r="F8" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13" t="s">
+      <c r="G9" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13" t="s">
+      <c r="F10" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
       <c r="L11" s="6"/>
       <c r="M11" t="s">
         <v>7</v>
@@ -4403,137 +4540,68 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
       <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
       <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
       <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13" t="s">
+      <c r="G15" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
       <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="15" t="s">
+      <c r="H16" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
       <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15" t="s">
+      <c r="G17" s="12"/>
+      <c r="H17" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
       <c r="L17" s="6"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="13" t="s">
+      <c r="G18" s="12"/>
+      <c r="H18" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
       <c r="L18" s="6"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="13" t="s">
+      <c r="G19" s="12"/>
+      <c r="H19" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
       <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13" t="s">
+      <c r="G20" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
       <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -4570,42 +4638,18 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
       <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
       <c r="K28" s="6"/>
       <c r="L28" t="s">
         <v>7</v>
@@ -4618,70 +4662,30 @@
       <c r="B29" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
       <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
       <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
       <c r="K31" s="6"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
       <c r="K33" s="6"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -4718,100 +4722,44 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
       <c r="J39" s="6"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
       <c r="J40" s="6"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
       <c r="J43" s="6"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
       <c r="J44" s="6"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
       <c r="J45" s="6"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
       <c r="J46" s="6"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -4849,104 +4797,48 @@
       <c r="B52" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
       <c r="J52" s="6"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
       <c r="J53" s="6"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
       <c r="J54" s="6"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
       <c r="J55" s="6"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
       <c r="J56" s="6"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
       <c r="J57" s="6"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
       <c r="J58" s="6"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
       <c r="J59" s="6"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
@@ -4988,9 +4880,1239 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="T64" s="6"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" t="s">
+        <v>94</v>
+      </c>
+      <c r="T65" s="6"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="T66" s="6"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="T67" s="6"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="T68" s="6"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="T69" s="6"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="T70" s="6"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="T71" s="6"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="T72" s="6"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="T73" s="6"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="T74" s="6"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="T75" s="6"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="T76" s="6"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+      <c r="T77" s="6"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="T78" s="6"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="T79" s="6"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="T80" s="6"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="T81" s="6"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="T82" s="6"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" s="5"/>
+      <c r="T83" s="6"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="T84" s="6"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" s="5"/>
+      <c r="T85" s="6"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" s="5"/>
+      <c r="T86" s="6"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+      <c r="T87" s="6"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="T88" s="6"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" s="5"/>
+      <c r="T89" s="6"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" s="5"/>
+      <c r="T90" s="6"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+      <c r="T91" s="6"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="5"/>
+      <c r="T92" s="6"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" s="5"/>
+      <c r="T93" s="6"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" s="5"/>
+      <c r="T94" s="6"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" s="5"/>
+      <c r="T95" s="6"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" s="5"/>
+      <c r="T96" s="6"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" s="5"/>
+      <c r="T97" s="6"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98" s="5"/>
+      <c r="T98" s="6"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99" s="5"/>
+      <c r="T99" s="6"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" s="5"/>
+      <c r="T100" s="6"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101" s="5"/>
+      <c r="T101" s="6"/>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102" s="5"/>
+      <c r="T102" s="6"/>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A103" s="5"/>
+      <c r="T103" s="6"/>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A104" s="5"/>
+      <c r="T104" s="6"/>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A105" s="5"/>
+      <c r="T105" s="6"/>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A106" s="5"/>
+      <c r="T106" s="6"/>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A107" s="5"/>
+      <c r="T107" s="6"/>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A108" s="5"/>
+      <c r="T108" s="6"/>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A109" s="5"/>
+      <c r="T109" s="6"/>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A110" s="5"/>
+      <c r="T110" s="6"/>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A111" s="5"/>
+      <c r="T111" s="6"/>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A112" s="5"/>
+      <c r="T112" s="6"/>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A113" s="5"/>
+      <c r="T113" s="6"/>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A114" s="5"/>
+      <c r="T114" s="6"/>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A115" s="5"/>
+      <c r="T115" s="6"/>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A116" s="5"/>
+      <c r="T116" s="6"/>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A117" s="5"/>
+      <c r="T117" s="6"/>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A118" s="5"/>
+      <c r="T118" s="6"/>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A119" s="5"/>
+      <c r="T119" s="6"/>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A120" s="5"/>
+      <c r="T120" s="6"/>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A121" s="5"/>
+      <c r="T121" s="6"/>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A122" s="5"/>
+      <c r="B122" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="3"/>
+      <c r="M122" s="3"/>
+      <c r="N122" s="3"/>
+      <c r="O122" s="3"/>
+      <c r="P122" s="3"/>
+      <c r="Q122" s="3"/>
+      <c r="R122" s="3"/>
+      <c r="S122" s="4"/>
+      <c r="T122" s="6"/>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="S123" s="6"/>
+      <c r="T123" s="6"/>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="S124" s="6"/>
+      <c r="T124" s="6"/>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="S125" s="6"/>
+      <c r="T125" s="6"/>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="S126" s="6"/>
+      <c r="T126" s="6"/>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="S127" s="6"/>
+      <c r="T127" s="6"/>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="S128" s="6"/>
+      <c r="T128" s="6"/>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="S129" s="6"/>
+      <c r="T129" s="6"/>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="S130" s="6"/>
+      <c r="T130" s="6"/>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="S131" s="6"/>
+      <c r="T131" s="6"/>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="S132" s="6"/>
+      <c r="T132" s="6"/>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="S133" s="6"/>
+      <c r="T133" s="6"/>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="S134" s="6"/>
+      <c r="T134" s="6"/>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="S135" s="6"/>
+      <c r="T135" s="6"/>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="S136" s="6"/>
+      <c r="T136" s="6"/>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="S137" s="6"/>
+      <c r="T137" s="6"/>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="S138" s="6"/>
+      <c r="T138" s="6"/>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="S139" s="6"/>
+      <c r="T139" s="6"/>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="S140" s="6"/>
+      <c r="T140" s="6"/>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="S141" s="6"/>
+      <c r="T141" s="6"/>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="S142" s="6"/>
+      <c r="T142" s="6"/>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
+      <c r="S143" s="6"/>
+      <c r="T143" s="6"/>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+      <c r="S144" s="6"/>
+      <c r="T144" s="6"/>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+      <c r="S145" s="6"/>
+      <c r="T145" s="6"/>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
+      <c r="S146" s="6"/>
+      <c r="T146" s="6"/>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
+      <c r="S147" s="6"/>
+      <c r="T147" s="6"/>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
+      <c r="S148" s="6"/>
+      <c r="T148" s="6"/>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A149" s="5"/>
+      <c r="B149" s="5"/>
+      <c r="S149" s="6"/>
+      <c r="T149" s="6"/>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
+      <c r="S150" s="6"/>
+      <c r="T150" s="6"/>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
+      <c r="S151" s="6"/>
+      <c r="T151" s="6"/>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
+      <c r="S152" s="6"/>
+      <c r="T152" s="6"/>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A153" s="5"/>
+      <c r="B153" s="5"/>
+      <c r="S153" s="6"/>
+      <c r="T153" s="6"/>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
+      <c r="S154" s="6"/>
+      <c r="T154" s="6"/>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
+      <c r="S155" s="6"/>
+      <c r="T155" s="6"/>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+      <c r="S156" s="6"/>
+      <c r="T156" s="6"/>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
+      <c r="S157" s="6"/>
+      <c r="T157" s="6"/>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
+      <c r="S158" s="6"/>
+      <c r="T158" s="6"/>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
+      <c r="S159" s="6"/>
+      <c r="T159" s="6"/>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
+      <c r="S160" s="6"/>
+      <c r="T160" s="6"/>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A161" s="5"/>
+      <c r="B161" s="7"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+      <c r="H161" s="8"/>
+      <c r="I161" s="8"/>
+      <c r="J161" s="8"/>
+      <c r="K161" s="8"/>
+      <c r="L161" s="8"/>
+      <c r="M161" s="8"/>
+      <c r="N161" s="8"/>
+      <c r="O161" s="8"/>
+      <c r="P161" s="8"/>
+      <c r="Q161" s="8"/>
+      <c r="R161" s="8"/>
+      <c r="S161" s="9"/>
+      <c r="T161" s="6"/>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A162" s="7"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="8"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
+      <c r="H162" s="8"/>
+      <c r="I162" s="8"/>
+      <c r="J162" s="8"/>
+      <c r="K162" s="8"/>
+      <c r="L162" s="8"/>
+      <c r="M162" s="8"/>
+      <c r="N162" s="8"/>
+      <c r="O162" s="8"/>
+      <c r="P162" s="8"/>
+      <c r="Q162" s="8"/>
+      <c r="R162" s="8"/>
+      <c r="S162" s="8"/>
+      <c r="T162" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4FA0CD-FCB4-4B4C-9784-A23DB0A6D9C5}">
+  <dimension ref="A3:T78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="G11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="H12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="H13" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="H14" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="H16" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="G17" s="12"/>
+      <c r="H17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="G18" s="12"/>
+      <c r="H18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="G19" s="12"/>
+      <c r="H19" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="6"/>
+      <c r="J30" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="6"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="6"/>
+      <c r="L46" t="s">
+        <v>7</v>
+      </c>
+      <c r="M46" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="6"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B49" s="10"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B50" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B51" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="6"/>
+      <c r="L51" t="s">
+        <v>7</v>
+      </c>
+      <c r="M51" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B52" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="6"/>
+      <c r="M52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B53" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="6"/>
+      <c r="M53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B54" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="9"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="4"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="6"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="6"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="6"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="6"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="6"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13"/>
+      <c r="S63" s="13"/>
+      <c r="T63" s="6"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="B64" s="13"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
       <c r="E64" s="13"/>
@@ -5012,9 +6134,7 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
-      <c r="B65" s="18" t="s">
-        <v>94</v>
-      </c>
+      <c r="B65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
@@ -5299,1881 +6419,30 @@
       <c r="T77" s="6"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
-      <c r="O78" s="13"/>
-      <c r="P78" s="13"/>
-      <c r="Q78" s="13"/>
-      <c r="R78" s="13"/>
-      <c r="S78" s="13"/>
-      <c r="T78" s="6"/>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="13"/>
-      <c r="L79" s="13"/>
-      <c r="M79" s="13"/>
-      <c r="N79" s="13"/>
-      <c r="O79" s="13"/>
-      <c r="P79" s="13"/>
-      <c r="Q79" s="13"/>
-      <c r="R79" s="13"/>
-      <c r="S79" s="13"/>
-      <c r="T79" s="6"/>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="13"/>
-      <c r="K80" s="13"/>
-      <c r="L80" s="13"/>
-      <c r="M80" s="13"/>
-      <c r="N80" s="13"/>
-      <c r="O80" s="13"/>
-      <c r="P80" s="13"/>
-      <c r="Q80" s="13"/>
-      <c r="R80" s="13"/>
-      <c r="S80" s="13"/>
-      <c r="T80" s="6"/>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="13"/>
-      <c r="L81" s="13"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="13"/>
-      <c r="O81" s="13"/>
-      <c r="P81" s="13"/>
-      <c r="Q81" s="13"/>
-      <c r="R81" s="13"/>
-      <c r="S81" s="13"/>
-      <c r="T81" s="6"/>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
-      <c r="J82" s="13"/>
-      <c r="K82" s="13"/>
-      <c r="L82" s="13"/>
-      <c r="M82" s="13"/>
-      <c r="N82" s="13"/>
-      <c r="O82" s="13"/>
-      <c r="P82" s="13"/>
-      <c r="Q82" s="13"/>
-      <c r="R82" s="13"/>
-      <c r="S82" s="13"/>
-      <c r="T82" s="6"/>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13"/>
-      <c r="K83" s="13"/>
-      <c r="L83" s="13"/>
-      <c r="M83" s="13"/>
-      <c r="N83" s="13"/>
-      <c r="O83" s="13"/>
-      <c r="P83" s="13"/>
-      <c r="Q83" s="13"/>
-      <c r="R83" s="13"/>
-      <c r="S83" s="13"/>
-      <c r="T83" s="6"/>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
-      <c r="J84" s="13"/>
-      <c r="K84" s="13"/>
-      <c r="L84" s="13"/>
-      <c r="M84" s="13"/>
-      <c r="N84" s="13"/>
-      <c r="O84" s="13"/>
-      <c r="P84" s="13"/>
-      <c r="Q84" s="13"/>
-      <c r="R84" s="13"/>
-      <c r="S84" s="13"/>
-      <c r="T84" s="6"/>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A85" s="5"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="13"/>
-      <c r="K85" s="13"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="13"/>
-      <c r="O85" s="13"/>
-      <c r="P85" s="13"/>
-      <c r="Q85" s="13"/>
-      <c r="R85" s="13"/>
-      <c r="S85" s="13"/>
-      <c r="T85" s="6"/>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A86" s="5"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
-      <c r="J86" s="13"/>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="13"/>
-      <c r="O86" s="13"/>
-      <c r="P86" s="13"/>
-      <c r="Q86" s="13"/>
-      <c r="R86" s="13"/>
-      <c r="S86" s="13"/>
-      <c r="T86" s="6"/>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A87" s="5"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
-      <c r="J87" s="13"/>
-      <c r="K87" s="13"/>
-      <c r="L87" s="13"/>
-      <c r="M87" s="13"/>
-      <c r="N87" s="13"/>
-      <c r="O87" s="13"/>
-      <c r="P87" s="13"/>
-      <c r="Q87" s="13"/>
-      <c r="R87" s="13"/>
-      <c r="S87" s="13"/>
-      <c r="T87" s="6"/>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
-      <c r="J88" s="13"/>
-      <c r="K88" s="13"/>
-      <c r="L88" s="13"/>
-      <c r="M88" s="13"/>
-      <c r="N88" s="13"/>
-      <c r="O88" s="13"/>
-      <c r="P88" s="13"/>
-      <c r="Q88" s="13"/>
-      <c r="R88" s="13"/>
-      <c r="S88" s="13"/>
-      <c r="T88" s="6"/>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
-      <c r="J89" s="13"/>
-      <c r="K89" s="13"/>
-      <c r="L89" s="13"/>
-      <c r="M89" s="13"/>
-      <c r="N89" s="13"/>
-      <c r="O89" s="13"/>
-      <c r="P89" s="13"/>
-      <c r="Q89" s="13"/>
-      <c r="R89" s="13"/>
-      <c r="S89" s="13"/>
-      <c r="T89" s="6"/>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
-      <c r="J90" s="13"/>
-      <c r="K90" s="13"/>
-      <c r="L90" s="13"/>
-      <c r="M90" s="13"/>
-      <c r="N90" s="13"/>
-      <c r="O90" s="13"/>
-      <c r="P90" s="13"/>
-      <c r="Q90" s="13"/>
-      <c r="R90" s="13"/>
-      <c r="S90" s="13"/>
-      <c r="T90" s="6"/>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A91" s="5"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
-      <c r="K91" s="13"/>
-      <c r="L91" s="13"/>
-      <c r="M91" s="13"/>
-      <c r="N91" s="13"/>
-      <c r="O91" s="13"/>
-      <c r="P91" s="13"/>
-      <c r="Q91" s="13"/>
-      <c r="R91" s="13"/>
-      <c r="S91" s="13"/>
-      <c r="T91" s="6"/>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A92" s="5"/>
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="13"/>
-      <c r="J92" s="13"/>
-      <c r="K92" s="13"/>
-      <c r="L92" s="13"/>
-      <c r="M92" s="13"/>
-      <c r="N92" s="13"/>
-      <c r="O92" s="13"/>
-      <c r="P92" s="13"/>
-      <c r="Q92" s="13"/>
-      <c r="R92" s="13"/>
-      <c r="S92" s="13"/>
-      <c r="T92" s="6"/>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A93" s="5"/>
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="13"/>
-      <c r="J93" s="13"/>
-      <c r="K93" s="13"/>
-      <c r="L93" s="13"/>
-      <c r="M93" s="13"/>
-      <c r="N93" s="13"/>
-      <c r="O93" s="13"/>
-      <c r="P93" s="13"/>
-      <c r="Q93" s="13"/>
-      <c r="R93" s="13"/>
-      <c r="S93" s="13"/>
-      <c r="T93" s="6"/>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A94" s="5"/>
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="13"/>
-      <c r="J94" s="13"/>
-      <c r="K94" s="13"/>
-      <c r="L94" s="13"/>
-      <c r="M94" s="13"/>
-      <c r="N94" s="13"/>
-      <c r="O94" s="13"/>
-      <c r="P94" s="13"/>
-      <c r="Q94" s="13"/>
-      <c r="R94" s="13"/>
-      <c r="S94" s="13"/>
-      <c r="T94" s="6"/>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A95" s="5"/>
-      <c r="B95" s="13"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="13"/>
-      <c r="J95" s="13"/>
-      <c r="K95" s="13"/>
-      <c r="L95" s="13"/>
-      <c r="M95" s="13"/>
-      <c r="N95" s="13"/>
-      <c r="O95" s="13"/>
-      <c r="P95" s="13"/>
-      <c r="Q95" s="13"/>
-      <c r="R95" s="13"/>
-      <c r="S95" s="13"/>
-      <c r="T95" s="6"/>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A96" s="5"/>
-      <c r="B96" s="13"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="13"/>
-      <c r="J96" s="13"/>
-      <c r="K96" s="13"/>
-      <c r="L96" s="13"/>
-      <c r="M96" s="13"/>
-      <c r="N96" s="13"/>
-      <c r="O96" s="13"/>
-      <c r="P96" s="13"/>
-      <c r="Q96" s="13"/>
-      <c r="R96" s="13"/>
-      <c r="S96" s="13"/>
-      <c r="T96" s="6"/>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A97" s="5"/>
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
-      <c r="J97" s="13"/>
-      <c r="K97" s="13"/>
-      <c r="L97" s="13"/>
-      <c r="M97" s="13"/>
-      <c r="N97" s="13"/>
-      <c r="O97" s="13"/>
-      <c r="P97" s="13"/>
-      <c r="Q97" s="13"/>
-      <c r="R97" s="13"/>
-      <c r="S97" s="13"/>
-      <c r="T97" s="6"/>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
-      <c r="B98" s="13"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="13"/>
-      <c r="J98" s="13"/>
-      <c r="K98" s="13"/>
-      <c r="L98" s="13"/>
-      <c r="M98" s="13"/>
-      <c r="N98" s="13"/>
-      <c r="O98" s="13"/>
-      <c r="P98" s="13"/>
-      <c r="Q98" s="13"/>
-      <c r="R98" s="13"/>
-      <c r="S98" s="13"/>
-      <c r="T98" s="6"/>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A99" s="5"/>
-      <c r="B99" s="13"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="13"/>
-      <c r="J99" s="13"/>
-      <c r="K99" s="13"/>
-      <c r="L99" s="13"/>
-      <c r="M99" s="13"/>
-      <c r="N99" s="13"/>
-      <c r="O99" s="13"/>
-      <c r="P99" s="13"/>
-      <c r="Q99" s="13"/>
-      <c r="R99" s="13"/>
-      <c r="S99" s="13"/>
-      <c r="T99" s="6"/>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A100" s="5"/>
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
-      <c r="J100" s="13"/>
-      <c r="K100" s="13"/>
-      <c r="L100" s="13"/>
-      <c r="M100" s="13"/>
-      <c r="N100" s="13"/>
-      <c r="O100" s="13"/>
-      <c r="P100" s="13"/>
-      <c r="Q100" s="13"/>
-      <c r="R100" s="13"/>
-      <c r="S100" s="13"/>
-      <c r="T100" s="6"/>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A101" s="5"/>
-      <c r="B101" s="13"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
-      <c r="J101" s="13"/>
-      <c r="K101" s="13"/>
-      <c r="L101" s="13"/>
-      <c r="M101" s="13"/>
-      <c r="N101" s="13"/>
-      <c r="O101" s="13"/>
-      <c r="P101" s="13"/>
-      <c r="Q101" s="13"/>
-      <c r="R101" s="13"/>
-      <c r="S101" s="13"/>
-      <c r="T101" s="6"/>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A102" s="5"/>
-      <c r="B102" s="13"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="13"/>
-      <c r="J102" s="13"/>
-      <c r="K102" s="13"/>
-      <c r="L102" s="13"/>
-      <c r="M102" s="13"/>
-      <c r="N102" s="13"/>
-      <c r="O102" s="13"/>
-      <c r="P102" s="13"/>
-      <c r="Q102" s="13"/>
-      <c r="R102" s="13"/>
-      <c r="S102" s="13"/>
-      <c r="T102" s="6"/>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A103" s="5"/>
-      <c r="B103" s="13"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="13"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="13"/>
-      <c r="I103" s="13"/>
-      <c r="J103" s="13"/>
-      <c r="K103" s="13"/>
-      <c r="L103" s="13"/>
-      <c r="M103" s="13"/>
-      <c r="N103" s="13"/>
-      <c r="O103" s="13"/>
-      <c r="P103" s="13"/>
-      <c r="Q103" s="13"/>
-      <c r="R103" s="13"/>
-      <c r="S103" s="13"/>
-      <c r="T103" s="6"/>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A104" s="5"/>
-      <c r="B104" s="13"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="13"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="13"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="13"/>
-      <c r="J104" s="13"/>
-      <c r="K104" s="13"/>
-      <c r="L104" s="13"/>
-      <c r="M104" s="13"/>
-      <c r="N104" s="13"/>
-      <c r="O104" s="13"/>
-      <c r="P104" s="13"/>
-      <c r="Q104" s="13"/>
-      <c r="R104" s="13"/>
-      <c r="S104" s="13"/>
-      <c r="T104" s="6"/>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A105" s="5"/>
-      <c r="B105" s="13"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13"/>
-      <c r="J105" s="13"/>
-      <c r="K105" s="13"/>
-      <c r="L105" s="13"/>
-      <c r="M105" s="13"/>
-      <c r="N105" s="13"/>
-      <c r="O105" s="13"/>
-      <c r="P105" s="13"/>
-      <c r="Q105" s="13"/>
-      <c r="R105" s="13"/>
-      <c r="S105" s="13"/>
-      <c r="T105" s="6"/>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A106" s="5"/>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="13"/>
-      <c r="I106" s="13"/>
-      <c r="J106" s="13"/>
-      <c r="K106" s="13"/>
-      <c r="L106" s="13"/>
-      <c r="M106" s="13"/>
-      <c r="N106" s="13"/>
-      <c r="O106" s="13"/>
-      <c r="P106" s="13"/>
-      <c r="Q106" s="13"/>
-      <c r="R106" s="13"/>
-      <c r="S106" s="13"/>
-      <c r="T106" s="6"/>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="6"/>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A108" s="5"/>
-      <c r="B108" s="13"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="13"/>
-      <c r="J108" s="13"/>
-      <c r="K108" s="13"/>
-      <c r="L108" s="13"/>
-      <c r="M108" s="13"/>
-      <c r="N108" s="13"/>
-      <c r="O108" s="13"/>
-      <c r="P108" s="13"/>
-      <c r="Q108" s="13"/>
-      <c r="R108" s="13"/>
-      <c r="S108" s="13"/>
-      <c r="T108" s="6"/>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A109" s="5"/>
-      <c r="B109" s="13"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="13"/>
-      <c r="H109" s="13"/>
-      <c r="I109" s="13"/>
-      <c r="J109" s="13"/>
-      <c r="K109" s="13"/>
-      <c r="L109" s="13"/>
-      <c r="M109" s="13"/>
-      <c r="N109" s="13"/>
-      <c r="O109" s="13"/>
-      <c r="P109" s="13"/>
-      <c r="Q109" s="13"/>
-      <c r="R109" s="13"/>
-      <c r="S109" s="13"/>
-      <c r="T109" s="6"/>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A110" s="5"/>
-      <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="13"/>
-      <c r="J110" s="13"/>
-      <c r="K110" s="13"/>
-      <c r="L110" s="13"/>
-      <c r="M110" s="13"/>
-      <c r="N110" s="13"/>
-      <c r="O110" s="13"/>
-      <c r="P110" s="13"/>
-      <c r="Q110" s="13"/>
-      <c r="R110" s="13"/>
-      <c r="S110" s="13"/>
-      <c r="T110" s="6"/>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A111" s="5"/>
-      <c r="B111" s="13"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="13"/>
-      <c r="I111" s="13"/>
-      <c r="J111" s="13"/>
-      <c r="K111" s="13"/>
-      <c r="L111" s="13"/>
-      <c r="M111" s="13"/>
-      <c r="N111" s="13"/>
-      <c r="O111" s="13"/>
-      <c r="P111" s="13"/>
-      <c r="Q111" s="13"/>
-      <c r="R111" s="13"/>
-      <c r="S111" s="13"/>
-      <c r="T111" s="6"/>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A112" s="5"/>
-      <c r="B112" s="13"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="13"/>
-      <c r="I112" s="13"/>
-      <c r="J112" s="13"/>
-      <c r="K112" s="13"/>
-      <c r="L112" s="13"/>
-      <c r="M112" s="13"/>
-      <c r="N112" s="13"/>
-      <c r="O112" s="13"/>
-      <c r="P112" s="13"/>
-      <c r="Q112" s="13"/>
-      <c r="R112" s="13"/>
-      <c r="S112" s="13"/>
-      <c r="T112" s="6"/>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A113" s="5"/>
-      <c r="B113" s="13"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
-      <c r="H113" s="13"/>
-      <c r="I113" s="13"/>
-      <c r="J113" s="13"/>
-      <c r="K113" s="13"/>
-      <c r="L113" s="13"/>
-      <c r="M113" s="13"/>
-      <c r="N113" s="13"/>
-      <c r="O113" s="13"/>
-      <c r="P113" s="13"/>
-      <c r="Q113" s="13"/>
-      <c r="R113" s="13"/>
-      <c r="S113" s="13"/>
-      <c r="T113" s="6"/>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A114" s="5"/>
-      <c r="B114" s="13"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
-      <c r="H114" s="13"/>
-      <c r="I114" s="13"/>
-      <c r="J114" s="13"/>
-      <c r="K114" s="13"/>
-      <c r="L114" s="13"/>
-      <c r="M114" s="13"/>
-      <c r="N114" s="13"/>
-      <c r="O114" s="13"/>
-      <c r="P114" s="13"/>
-      <c r="Q114" s="13"/>
-      <c r="R114" s="13"/>
-      <c r="S114" s="13"/>
-      <c r="T114" s="6"/>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A115" s="5"/>
-      <c r="B115" s="13"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="13"/>
-      <c r="I115" s="13"/>
-      <c r="J115" s="13"/>
-      <c r="K115" s="13"/>
-      <c r="L115" s="13"/>
-      <c r="M115" s="13"/>
-      <c r="N115" s="13"/>
-      <c r="O115" s="13"/>
-      <c r="P115" s="13"/>
-      <c r="Q115" s="13"/>
-      <c r="R115" s="13"/>
-      <c r="S115" s="13"/>
-      <c r="T115" s="6"/>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A116" s="5"/>
-      <c r="B116" s="13"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="13"/>
-      <c r="I116" s="13"/>
-      <c r="J116" s="13"/>
-      <c r="K116" s="13"/>
-      <c r="L116" s="13"/>
-      <c r="M116" s="13"/>
-      <c r="N116" s="13"/>
-      <c r="O116" s="13"/>
-      <c r="P116" s="13"/>
-      <c r="Q116" s="13"/>
-      <c r="R116" s="13"/>
-      <c r="S116" s="13"/>
-      <c r="T116" s="6"/>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A117" s="5"/>
-      <c r="B117" s="13"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="13"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="13"/>
-      <c r="H117" s="13"/>
-      <c r="I117" s="13"/>
-      <c r="J117" s="13"/>
-      <c r="K117" s="13"/>
-      <c r="L117" s="13"/>
-      <c r="M117" s="13"/>
-      <c r="N117" s="13"/>
-      <c r="O117" s="13"/>
-      <c r="P117" s="13"/>
-      <c r="Q117" s="13"/>
-      <c r="R117" s="13"/>
-      <c r="S117" s="13"/>
-      <c r="T117" s="6"/>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A118" s="5"/>
-      <c r="B118" s="13"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="13"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="13"/>
-      <c r="H118" s="13"/>
-      <c r="I118" s="13"/>
-      <c r="J118" s="13"/>
-      <c r="K118" s="13"/>
-      <c r="L118" s="13"/>
-      <c r="M118" s="13"/>
-      <c r="N118" s="13"/>
-      <c r="O118" s="13"/>
-      <c r="P118" s="13"/>
-      <c r="Q118" s="13"/>
-      <c r="R118" s="13"/>
-      <c r="S118" s="13"/>
-      <c r="T118" s="6"/>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A119" s="5"/>
-      <c r="B119" s="13"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13"/>
-      <c r="H119" s="13"/>
-      <c r="I119" s="13"/>
-      <c r="J119" s="13"/>
-      <c r="K119" s="13"/>
-      <c r="L119" s="13"/>
-      <c r="M119" s="13"/>
-      <c r="N119" s="13"/>
-      <c r="O119" s="13"/>
-      <c r="P119" s="13"/>
-      <c r="Q119" s="13"/>
-      <c r="R119" s="13"/>
-      <c r="S119" s="13"/>
-      <c r="T119" s="6"/>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A120" s="5"/>
-      <c r="B120" s="13"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="13"/>
-      <c r="I120" s="13"/>
-      <c r="J120" s="13"/>
-      <c r="K120" s="13"/>
-      <c r="L120" s="13"/>
-      <c r="M120" s="13"/>
-      <c r="N120" s="13"/>
-      <c r="O120" s="13"/>
-      <c r="P120" s="13"/>
-      <c r="Q120" s="13"/>
-      <c r="R120" s="13"/>
-      <c r="S120" s="13"/>
-      <c r="T120" s="6"/>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A121" s="5"/>
-      <c r="B121" s="13"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="13"/>
-      <c r="J121" s="13"/>
-      <c r="K121" s="13"/>
-      <c r="L121" s="13"/>
-      <c r="M121" s="13"/>
-      <c r="N121" s="13"/>
-      <c r="O121" s="13"/>
-      <c r="P121" s="13"/>
-      <c r="Q121" s="13"/>
-      <c r="R121" s="13"/>
-      <c r="S121" s="13"/>
-      <c r="T121" s="6"/>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A122" s="5"/>
-      <c r="B122" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="3"/>
-      <c r="J122" s="3"/>
-      <c r="K122" s="3"/>
-      <c r="L122" s="3"/>
-      <c r="M122" s="3"/>
-      <c r="N122" s="3"/>
-      <c r="O122" s="3"/>
-      <c r="P122" s="3"/>
-      <c r="Q122" s="3"/>
-      <c r="R122" s="3"/>
-      <c r="S122" s="4"/>
-      <c r="T122" s="6"/>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A123" s="5"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="13"/>
-      <c r="H123" s="13"/>
-      <c r="I123" s="13"/>
-      <c r="J123" s="13"/>
-      <c r="K123" s="13"/>
-      <c r="L123" s="13"/>
-      <c r="M123" s="13"/>
-      <c r="N123" s="13"/>
-      <c r="O123" s="13"/>
-      <c r="P123" s="13"/>
-      <c r="Q123" s="13"/>
-      <c r="R123" s="13"/>
-      <c r="S123" s="6"/>
-      <c r="T123" s="6"/>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="13"/>
-      <c r="H124" s="13"/>
-      <c r="I124" s="13"/>
-      <c r="J124" s="13"/>
-      <c r="K124" s="13"/>
-      <c r="L124" s="13"/>
-      <c r="M124" s="13"/>
-      <c r="N124" s="13"/>
-      <c r="O124" s="13"/>
-      <c r="P124" s="13"/>
-      <c r="Q124" s="13"/>
-      <c r="R124" s="13"/>
-      <c r="S124" s="6"/>
-      <c r="T124" s="6"/>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A125" s="5"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13"/>
-      <c r="G125" s="13"/>
-      <c r="H125" s="13"/>
-      <c r="I125" s="13"/>
-      <c r="J125" s="13"/>
-      <c r="K125" s="13"/>
-      <c r="L125" s="13"/>
-      <c r="M125" s="13"/>
-      <c r="N125" s="13"/>
-      <c r="O125" s="13"/>
-      <c r="P125" s="13"/>
-      <c r="Q125" s="13"/>
-      <c r="R125" s="13"/>
-      <c r="S125" s="6"/>
-      <c r="T125" s="6"/>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
-      <c r="H126" s="13"/>
-      <c r="I126" s="13"/>
-      <c r="J126" s="13"/>
-      <c r="K126" s="13"/>
-      <c r="L126" s="13"/>
-      <c r="M126" s="13"/>
-      <c r="N126" s="13"/>
-      <c r="O126" s="13"/>
-      <c r="P126" s="13"/>
-      <c r="Q126" s="13"/>
-      <c r="R126" s="13"/>
-      <c r="S126" s="6"/>
-      <c r="T126" s="6"/>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="13"/>
-      <c r="H127" s="13"/>
-      <c r="I127" s="13"/>
-      <c r="J127" s="13"/>
-      <c r="K127" s="13"/>
-      <c r="L127" s="13"/>
-      <c r="M127" s="13"/>
-      <c r="N127" s="13"/>
-      <c r="O127" s="13"/>
-      <c r="P127" s="13"/>
-      <c r="Q127" s="13"/>
-      <c r="R127" s="13"/>
-      <c r="S127" s="6"/>
-      <c r="T127" s="6"/>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="13"/>
-      <c r="H128" s="13"/>
-      <c r="I128" s="13"/>
-      <c r="J128" s="13"/>
-      <c r="K128" s="13"/>
-      <c r="L128" s="13"/>
-      <c r="M128" s="13"/>
-      <c r="N128" s="13"/>
-      <c r="O128" s="13"/>
-      <c r="P128" s="13"/>
-      <c r="Q128" s="13"/>
-      <c r="R128" s="13"/>
-      <c r="S128" s="6"/>
-      <c r="T128" s="6"/>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="13"/>
-      <c r="H129" s="13"/>
-      <c r="I129" s="13"/>
-      <c r="J129" s="13"/>
-      <c r="K129" s="13"/>
-      <c r="L129" s="13"/>
-      <c r="M129" s="13"/>
-      <c r="N129" s="13"/>
-      <c r="O129" s="13"/>
-      <c r="P129" s="13"/>
-      <c r="Q129" s="13"/>
-      <c r="R129" s="13"/>
-      <c r="S129" s="6"/>
-      <c r="T129" s="6"/>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="13"/>
-      <c r="F130" s="13"/>
-      <c r="G130" s="13"/>
-      <c r="H130" s="13"/>
-      <c r="I130" s="13"/>
-      <c r="J130" s="13"/>
-      <c r="K130" s="13"/>
-      <c r="L130" s="13"/>
-      <c r="M130" s="13"/>
-      <c r="N130" s="13"/>
-      <c r="O130" s="13"/>
-      <c r="P130" s="13"/>
-      <c r="Q130" s="13"/>
-      <c r="R130" s="13"/>
-      <c r="S130" s="6"/>
-      <c r="T130" s="6"/>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="13"/>
-      <c r="G131" s="13"/>
-      <c r="H131" s="13"/>
-      <c r="I131" s="13"/>
-      <c r="J131" s="13"/>
-      <c r="K131" s="13"/>
-      <c r="L131" s="13"/>
-      <c r="M131" s="13"/>
-      <c r="N131" s="13"/>
-      <c r="O131" s="13"/>
-      <c r="P131" s="13"/>
-      <c r="Q131" s="13"/>
-      <c r="R131" s="13"/>
-      <c r="S131" s="6"/>
-      <c r="T131" s="6"/>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13"/>
-      <c r="G132" s="13"/>
-      <c r="H132" s="13"/>
-      <c r="I132" s="13"/>
-      <c r="J132" s="13"/>
-      <c r="K132" s="13"/>
-      <c r="L132" s="13"/>
-      <c r="M132" s="13"/>
-      <c r="N132" s="13"/>
-      <c r="O132" s="13"/>
-      <c r="P132" s="13"/>
-      <c r="Q132" s="13"/>
-      <c r="R132" s="13"/>
-      <c r="S132" s="6"/>
-      <c r="T132" s="6"/>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A133" s="5"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="13"/>
-      <c r="F133" s="13"/>
-      <c r="G133" s="13"/>
-      <c r="H133" s="13"/>
-      <c r="I133" s="13"/>
-      <c r="J133" s="13"/>
-      <c r="K133" s="13"/>
-      <c r="L133" s="13"/>
-      <c r="M133" s="13"/>
-      <c r="N133" s="13"/>
-      <c r="O133" s="13"/>
-      <c r="P133" s="13"/>
-      <c r="Q133" s="13"/>
-      <c r="R133" s="13"/>
-      <c r="S133" s="6"/>
-      <c r="T133" s="6"/>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A134" s="5"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="13"/>
-      <c r="F134" s="13"/>
-      <c r="G134" s="13"/>
-      <c r="H134" s="13"/>
-      <c r="I134" s="13"/>
-      <c r="J134" s="13"/>
-      <c r="K134" s="13"/>
-      <c r="L134" s="13"/>
-      <c r="M134" s="13"/>
-      <c r="N134" s="13"/>
-      <c r="O134" s="13"/>
-      <c r="P134" s="13"/>
-      <c r="Q134" s="13"/>
-      <c r="R134" s="13"/>
-      <c r="S134" s="6"/>
-      <c r="T134" s="6"/>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A135" s="5"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="13"/>
-      <c r="F135" s="13"/>
-      <c r="G135" s="13"/>
-      <c r="H135" s="13"/>
-      <c r="I135" s="13"/>
-      <c r="J135" s="13"/>
-      <c r="K135" s="13"/>
-      <c r="L135" s="13"/>
-      <c r="M135" s="13"/>
-      <c r="N135" s="13"/>
-      <c r="O135" s="13"/>
-      <c r="P135" s="13"/>
-      <c r="Q135" s="13"/>
-      <c r="R135" s="13"/>
-      <c r="S135" s="6"/>
-      <c r="T135" s="6"/>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="13"/>
-      <c r="E136" s="13"/>
-      <c r="F136" s="13"/>
-      <c r="G136" s="13"/>
-      <c r="H136" s="13"/>
-      <c r="I136" s="13"/>
-      <c r="J136" s="13"/>
-      <c r="K136" s="13"/>
-      <c r="L136" s="13"/>
-      <c r="M136" s="13"/>
-      <c r="N136" s="13"/>
-      <c r="O136" s="13"/>
-      <c r="P136" s="13"/>
-      <c r="Q136" s="13"/>
-      <c r="R136" s="13"/>
-      <c r="S136" s="6"/>
-      <c r="T136" s="6"/>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A137" s="5"/>
-      <c r="B137" s="5"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="13"/>
-      <c r="F137" s="13"/>
-      <c r="G137" s="13"/>
-      <c r="H137" s="13"/>
-      <c r="I137" s="13"/>
-      <c r="J137" s="13"/>
-      <c r="K137" s="13"/>
-      <c r="L137" s="13"/>
-      <c r="M137" s="13"/>
-      <c r="N137" s="13"/>
-      <c r="O137" s="13"/>
-      <c r="P137" s="13"/>
-      <c r="Q137" s="13"/>
-      <c r="R137" s="13"/>
-      <c r="S137" s="6"/>
-      <c r="T137" s="6"/>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="13"/>
-      <c r="G138" s="13"/>
-      <c r="H138" s="13"/>
-      <c r="I138" s="13"/>
-      <c r="J138" s="13"/>
-      <c r="K138" s="13"/>
-      <c r="L138" s="13"/>
-      <c r="M138" s="13"/>
-      <c r="N138" s="13"/>
-      <c r="O138" s="13"/>
-      <c r="P138" s="13"/>
-      <c r="Q138" s="13"/>
-      <c r="R138" s="13"/>
-      <c r="S138" s="6"/>
-      <c r="T138" s="6"/>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A139" s="5"/>
-      <c r="B139" s="5"/>
-      <c r="C139" s="13"/>
-      <c r="D139" s="13"/>
-      <c r="E139" s="13"/>
-      <c r="F139" s="13"/>
-      <c r="G139" s="13"/>
-      <c r="H139" s="13"/>
-      <c r="I139" s="13"/>
-      <c r="J139" s="13"/>
-      <c r="K139" s="13"/>
-      <c r="L139" s="13"/>
-      <c r="M139" s="13"/>
-      <c r="N139" s="13"/>
-      <c r="O139" s="13"/>
-      <c r="P139" s="13"/>
-      <c r="Q139" s="13"/>
-      <c r="R139" s="13"/>
-      <c r="S139" s="6"/>
-      <c r="T139" s="6"/>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A140" s="5"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="13"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="13"/>
-      <c r="F140" s="13"/>
-      <c r="G140" s="13"/>
-      <c r="H140" s="13"/>
-      <c r="I140" s="13"/>
-      <c r="J140" s="13"/>
-      <c r="K140" s="13"/>
-      <c r="L140" s="13"/>
-      <c r="M140" s="13"/>
-      <c r="N140" s="13"/>
-      <c r="O140" s="13"/>
-      <c r="P140" s="13"/>
-      <c r="Q140" s="13"/>
-      <c r="R140" s="13"/>
-      <c r="S140" s="6"/>
-      <c r="T140" s="6"/>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A141" s="5"/>
-      <c r="B141" s="5"/>
-      <c r="C141" s="13"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="13"/>
-      <c r="F141" s="13"/>
-      <c r="G141" s="13"/>
-      <c r="H141" s="13"/>
-      <c r="I141" s="13"/>
-      <c r="J141" s="13"/>
-      <c r="K141" s="13"/>
-      <c r="L141" s="13"/>
-      <c r="M141" s="13"/>
-      <c r="N141" s="13"/>
-      <c r="O141" s="13"/>
-      <c r="P141" s="13"/>
-      <c r="Q141" s="13"/>
-      <c r="R141" s="13"/>
-      <c r="S141" s="6"/>
-      <c r="T141" s="6"/>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A142" s="5"/>
-      <c r="B142" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C142" s="13"/>
-      <c r="D142" s="13"/>
-      <c r="E142" s="13"/>
-      <c r="F142" s="13"/>
-      <c r="G142" s="13"/>
-      <c r="H142" s="13"/>
-      <c r="I142" s="13"/>
-      <c r="J142" s="13"/>
-      <c r="K142" s="13"/>
-      <c r="L142" s="13"/>
-      <c r="M142" s="13"/>
-      <c r="N142" s="13"/>
-      <c r="O142" s="13"/>
-      <c r="P142" s="13"/>
-      <c r="Q142" s="13"/>
-      <c r="R142" s="13"/>
-      <c r="S142" s="6"/>
-      <c r="T142" s="6"/>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A143" s="5"/>
-      <c r="B143" s="5"/>
-      <c r="C143" s="13"/>
-      <c r="D143" s="13"/>
-      <c r="E143" s="13"/>
-      <c r="F143" s="13"/>
-      <c r="G143" s="13"/>
-      <c r="H143" s="13"/>
-      <c r="I143" s="13"/>
-      <c r="J143" s="13"/>
-      <c r="K143" s="13"/>
-      <c r="L143" s="13"/>
-      <c r="M143" s="13"/>
-      <c r="N143" s="13"/>
-      <c r="O143" s="13"/>
-      <c r="P143" s="13"/>
-      <c r="Q143" s="13"/>
-      <c r="R143" s="13"/>
-      <c r="S143" s="6"/>
-      <c r="T143" s="6"/>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A144" s="5"/>
-      <c r="B144" s="5"/>
-      <c r="C144" s="13"/>
-      <c r="D144" s="13"/>
-      <c r="E144" s="13"/>
-      <c r="F144" s="13"/>
-      <c r="G144" s="13"/>
-      <c r="H144" s="13"/>
-      <c r="I144" s="13"/>
-      <c r="J144" s="13"/>
-      <c r="K144" s="13"/>
-      <c r="L144" s="13"/>
-      <c r="M144" s="13"/>
-      <c r="N144" s="13"/>
-      <c r="O144" s="13"/>
-      <c r="P144" s="13"/>
-      <c r="Q144" s="13"/>
-      <c r="R144" s="13"/>
-      <c r="S144" s="6"/>
-      <c r="T144" s="6"/>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A145" s="5"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="13"/>
-      <c r="D145" s="13"/>
-      <c r="E145" s="13"/>
-      <c r="F145" s="13"/>
-      <c r="G145" s="13"/>
-      <c r="H145" s="13"/>
-      <c r="I145" s="13"/>
-      <c r="J145" s="13"/>
-      <c r="K145" s="13"/>
-      <c r="L145" s="13"/>
-      <c r="M145" s="13"/>
-      <c r="N145" s="13"/>
-      <c r="O145" s="13"/>
-      <c r="P145" s="13"/>
-      <c r="Q145" s="13"/>
-      <c r="R145" s="13"/>
-      <c r="S145" s="6"/>
-      <c r="T145" s="6"/>
-    </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A146" s="5"/>
-      <c r="B146" s="5"/>
-      <c r="C146" s="13"/>
-      <c r="D146" s="13"/>
-      <c r="E146" s="13"/>
-      <c r="F146" s="13"/>
-      <c r="G146" s="13"/>
-      <c r="H146" s="13"/>
-      <c r="I146" s="13"/>
-      <c r="J146" s="13"/>
-      <c r="K146" s="13"/>
-      <c r="L146" s="13"/>
-      <c r="M146" s="13"/>
-      <c r="N146" s="13"/>
-      <c r="O146" s="13"/>
-      <c r="P146" s="13"/>
-      <c r="Q146" s="13"/>
-      <c r="R146" s="13"/>
-      <c r="S146" s="6"/>
-      <c r="T146" s="6"/>
-    </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A147" s="5"/>
-      <c r="B147" s="5"/>
-      <c r="C147" s="13"/>
-      <c r="D147" s="13"/>
-      <c r="E147" s="13"/>
-      <c r="F147" s="13"/>
-      <c r="G147" s="13"/>
-      <c r="H147" s="13"/>
-      <c r="I147" s="13"/>
-      <c r="J147" s="13"/>
-      <c r="K147" s="13"/>
-      <c r="L147" s="13"/>
-      <c r="M147" s="13"/>
-      <c r="N147" s="13"/>
-      <c r="O147" s="13"/>
-      <c r="P147" s="13"/>
-      <c r="Q147" s="13"/>
-      <c r="R147" s="13"/>
-      <c r="S147" s="6"/>
-      <c r="T147" s="6"/>
-    </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A148" s="5"/>
-      <c r="B148" s="5"/>
-      <c r="C148" s="13"/>
-      <c r="D148" s="13"/>
-      <c r="E148" s="13"/>
-      <c r="F148" s="13"/>
-      <c r="G148" s="13"/>
-      <c r="H148" s="13"/>
-      <c r="I148" s="13"/>
-      <c r="J148" s="13"/>
-      <c r="K148" s="13"/>
-      <c r="L148" s="13"/>
-      <c r="M148" s="13"/>
-      <c r="N148" s="13"/>
-      <c r="O148" s="13"/>
-      <c r="P148" s="13"/>
-      <c r="Q148" s="13"/>
-      <c r="R148" s="13"/>
-      <c r="S148" s="6"/>
-      <c r="T148" s="6"/>
-    </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A149" s="5"/>
-      <c r="B149" s="5"/>
-      <c r="C149" s="13"/>
-      <c r="D149" s="13"/>
-      <c r="E149" s="13"/>
-      <c r="F149" s="13"/>
-      <c r="G149" s="13"/>
-      <c r="H149" s="13"/>
-      <c r="I149" s="13"/>
-      <c r="J149" s="13"/>
-      <c r="K149" s="13"/>
-      <c r="L149" s="13"/>
-      <c r="M149" s="13"/>
-      <c r="N149" s="13"/>
-      <c r="O149" s="13"/>
-      <c r="P149" s="13"/>
-      <c r="Q149" s="13"/>
-      <c r="R149" s="13"/>
-      <c r="S149" s="6"/>
-      <c r="T149" s="6"/>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A150" s="5"/>
-      <c r="B150" s="5"/>
-      <c r="C150" s="13"/>
-      <c r="D150" s="13"/>
-      <c r="E150" s="13"/>
-      <c r="F150" s="13"/>
-      <c r="G150" s="13"/>
-      <c r="H150" s="13"/>
-      <c r="I150" s="13"/>
-      <c r="J150" s="13"/>
-      <c r="K150" s="13"/>
-      <c r="L150" s="13"/>
-      <c r="M150" s="13"/>
-      <c r="N150" s="13"/>
-      <c r="O150" s="13"/>
-      <c r="P150" s="13"/>
-      <c r="Q150" s="13"/>
-      <c r="R150" s="13"/>
-      <c r="S150" s="6"/>
-      <c r="T150" s="6"/>
-    </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A151" s="5"/>
-      <c r="B151" s="5"/>
-      <c r="C151" s="13"/>
-      <c r="D151" s="13"/>
-      <c r="E151" s="13"/>
-      <c r="F151" s="13"/>
-      <c r="G151" s="13"/>
-      <c r="H151" s="13"/>
-      <c r="I151" s="13"/>
-      <c r="J151" s="13"/>
-      <c r="K151" s="13"/>
-      <c r="L151" s="13"/>
-      <c r="M151" s="13"/>
-      <c r="N151" s="13"/>
-      <c r="O151" s="13"/>
-      <c r="P151" s="13"/>
-      <c r="Q151" s="13"/>
-      <c r="R151" s="13"/>
-      <c r="S151" s="6"/>
-      <c r="T151" s="6"/>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A152" s="5"/>
-      <c r="B152" s="5"/>
-      <c r="C152" s="13"/>
-      <c r="D152" s="13"/>
-      <c r="E152" s="13"/>
-      <c r="F152" s="13"/>
-      <c r="G152" s="13"/>
-      <c r="H152" s="13"/>
-      <c r="I152" s="13"/>
-      <c r="J152" s="13"/>
-      <c r="K152" s="13"/>
-      <c r="L152" s="13"/>
-      <c r="M152" s="13"/>
-      <c r="N152" s="13"/>
-      <c r="O152" s="13"/>
-      <c r="P152" s="13"/>
-      <c r="Q152" s="13"/>
-      <c r="R152" s="13"/>
-      <c r="S152" s="6"/>
-      <c r="T152" s="6"/>
-    </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A153" s="5"/>
-      <c r="B153" s="5"/>
-      <c r="C153" s="13"/>
-      <c r="D153" s="13"/>
-      <c r="E153" s="13"/>
-      <c r="F153" s="13"/>
-      <c r="G153" s="13"/>
-      <c r="H153" s="13"/>
-      <c r="I153" s="13"/>
-      <c r="J153" s="13"/>
-      <c r="K153" s="13"/>
-      <c r="L153" s="13"/>
-      <c r="M153" s="13"/>
-      <c r="N153" s="13"/>
-      <c r="O153" s="13"/>
-      <c r="P153" s="13"/>
-      <c r="Q153" s="13"/>
-      <c r="R153" s="13"/>
-      <c r="S153" s="6"/>
-      <c r="T153" s="6"/>
-    </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A154" s="5"/>
-      <c r="B154" s="5"/>
-      <c r="C154" s="13"/>
-      <c r="D154" s="13"/>
-      <c r="E154" s="13"/>
-      <c r="F154" s="13"/>
-      <c r="G154" s="13"/>
-      <c r="H154" s="13"/>
-      <c r="I154" s="13"/>
-      <c r="J154" s="13"/>
-      <c r="K154" s="13"/>
-      <c r="L154" s="13"/>
-      <c r="M154" s="13"/>
-      <c r="N154" s="13"/>
-      <c r="O154" s="13"/>
-      <c r="P154" s="13"/>
-      <c r="Q154" s="13"/>
-      <c r="R154" s="13"/>
-      <c r="S154" s="6"/>
-      <c r="T154" s="6"/>
-    </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A155" s="5"/>
-      <c r="B155" s="5"/>
-      <c r="C155" s="13"/>
-      <c r="D155" s="13"/>
-      <c r="E155" s="13"/>
-      <c r="F155" s="13"/>
-      <c r="G155" s="13"/>
-      <c r="H155" s="13"/>
-      <c r="I155" s="13"/>
-      <c r="J155" s="13"/>
-      <c r="K155" s="13"/>
-      <c r="L155" s="13"/>
-      <c r="M155" s="13"/>
-      <c r="N155" s="13"/>
-      <c r="O155" s="13"/>
-      <c r="P155" s="13"/>
-      <c r="Q155" s="13"/>
-      <c r="R155" s="13"/>
-      <c r="S155" s="6"/>
-      <c r="T155" s="6"/>
-    </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A156" s="5"/>
-      <c r="B156" s="5"/>
-      <c r="C156" s="13"/>
-      <c r="D156" s="13"/>
-      <c r="E156" s="13"/>
-      <c r="F156" s="13"/>
-      <c r="G156" s="13"/>
-      <c r="H156" s="13"/>
-      <c r="I156" s="13"/>
-      <c r="J156" s="13"/>
-      <c r="K156" s="13"/>
-      <c r="L156" s="13"/>
-      <c r="M156" s="13"/>
-      <c r="N156" s="13"/>
-      <c r="O156" s="13"/>
-      <c r="P156" s="13"/>
-      <c r="Q156" s="13"/>
-      <c r="R156" s="13"/>
-      <c r="S156" s="6"/>
-      <c r="T156" s="6"/>
-    </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A157" s="5"/>
-      <c r="B157" s="5"/>
-      <c r="C157" s="13"/>
-      <c r="D157" s="13"/>
-      <c r="E157" s="13"/>
-      <c r="F157" s="13"/>
-      <c r="G157" s="13"/>
-      <c r="H157" s="13"/>
-      <c r="I157" s="13"/>
-      <c r="J157" s="13"/>
-      <c r="K157" s="13"/>
-      <c r="L157" s="13"/>
-      <c r="M157" s="13"/>
-      <c r="N157" s="13"/>
-      <c r="O157" s="13"/>
-      <c r="P157" s="13"/>
-      <c r="Q157" s="13"/>
-      <c r="R157" s="13"/>
-      <c r="S157" s="6"/>
-      <c r="T157" s="6"/>
-    </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A158" s="5"/>
-      <c r="B158" s="5"/>
-      <c r="C158" s="13"/>
-      <c r="D158" s="13"/>
-      <c r="E158" s="13"/>
-      <c r="F158" s="13"/>
-      <c r="G158" s="13"/>
-      <c r="H158" s="13"/>
-      <c r="I158" s="13"/>
-      <c r="J158" s="13"/>
-      <c r="K158" s="13"/>
-      <c r="L158" s="13"/>
-      <c r="M158" s="13"/>
-      <c r="N158" s="13"/>
-      <c r="O158" s="13"/>
-      <c r="P158" s="13"/>
-      <c r="Q158" s="13"/>
-      <c r="R158" s="13"/>
-      <c r="S158" s="6"/>
-      <c r="T158" s="6"/>
-    </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A159" s="5"/>
-      <c r="B159" s="5"/>
-      <c r="C159" s="13"/>
-      <c r="D159" s="13"/>
-      <c r="E159" s="13"/>
-      <c r="F159" s="13"/>
-      <c r="G159" s="13"/>
-      <c r="H159" s="13"/>
-      <c r="I159" s="13"/>
-      <c r="J159" s="13"/>
-      <c r="K159" s="13"/>
-      <c r="L159" s="13"/>
-      <c r="M159" s="13"/>
-      <c r="N159" s="13"/>
-      <c r="O159" s="13"/>
-      <c r="P159" s="13"/>
-      <c r="Q159" s="13"/>
-      <c r="R159" s="13"/>
-      <c r="S159" s="6"/>
-      <c r="T159" s="6"/>
-    </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A160" s="5"/>
-      <c r="B160" s="5"/>
-      <c r="C160" s="13"/>
-      <c r="D160" s="13"/>
-      <c r="E160" s="13"/>
-      <c r="F160" s="13"/>
-      <c r="G160" s="13"/>
-      <c r="H160" s="13"/>
-      <c r="I160" s="13"/>
-      <c r="J160" s="13"/>
-      <c r="K160" s="13"/>
-      <c r="L160" s="13"/>
-      <c r="M160" s="13"/>
-      <c r="N160" s="13"/>
-      <c r="O160" s="13"/>
-      <c r="P160" s="13"/>
-      <c r="Q160" s="13"/>
-      <c r="R160" s="13"/>
-      <c r="S160" s="6"/>
-      <c r="T160" s="6"/>
-    </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A161" s="5"/>
-      <c r="B161" s="7"/>
-      <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
-      <c r="E161" s="8"/>
-      <c r="F161" s="8"/>
-      <c r="G161" s="8"/>
-      <c r="H161" s="8"/>
-      <c r="I161" s="8"/>
-      <c r="J161" s="8"/>
-      <c r="K161" s="8"/>
-      <c r="L161" s="8"/>
-      <c r="M161" s="8"/>
-      <c r="N161" s="8"/>
-      <c r="O161" s="8"/>
-      <c r="P161" s="8"/>
-      <c r="Q161" s="8"/>
-      <c r="R161" s="8"/>
-      <c r="S161" s="9"/>
-      <c r="T161" s="6"/>
-    </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A162" s="7"/>
-      <c r="B162" s="8"/>
-      <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
-      <c r="F162" s="8"/>
-      <c r="G162" s="8"/>
-      <c r="H162" s="8"/>
-      <c r="I162" s="8"/>
-      <c r="J162" s="8"/>
-      <c r="K162" s="8"/>
-      <c r="L162" s="8"/>
-      <c r="M162" s="8"/>
-      <c r="N162" s="8"/>
-      <c r="O162" s="8"/>
-      <c r="P162" s="8"/>
-      <c r="Q162" s="8"/>
-      <c r="R162" s="8"/>
-      <c r="S162" s="8"/>
-      <c r="T162" s="9"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>